--- a/lab-3/data/kirigami.xlsx
+++ b/lab-3/data/kirigami.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momun\Documents\Course-Work\Flexible-Electronics\lab-3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA47D15-66DF-4F83-95A0-CD816AE12494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192312A7-875C-4C6B-879B-402BFB55EB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmpCDD4" sheetId="1" r:id="rId1"/>
+    <sheet name="cleaned" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <t xml:space="preserve">Data: </t>
   </si>
@@ -360,11 +361,32 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,9 +925,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,7 +965,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1049,7 +1071,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1191,496 +1213,498 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114:L114"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -1727,7 +1751,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -1822,7 +1846,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>0</v>
       </c>
@@ -1869,7 +1893,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1</v>
       </c>
@@ -1916,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2</v>
       </c>
@@ -1963,7 +1987,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>3</v>
       </c>
@@ -2010,7 +2034,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>4</v>
       </c>
@@ -2057,7 +2081,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2104,7 +2128,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>6</v>
       </c>
@@ -2151,7 +2175,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>7</v>
       </c>
@@ -2198,7 +2222,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>8</v>
       </c>
@@ -2245,7 +2269,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>9</v>
       </c>
@@ -2292,7 +2316,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>10</v>
       </c>
@@ -2339,7 +2363,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>11</v>
       </c>
@@ -2386,7 +2410,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>12</v>
       </c>
@@ -2433,7 +2457,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>13</v>
       </c>
@@ -2480,7 +2504,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>14</v>
       </c>
@@ -2527,7 +2551,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>15</v>
       </c>
@@ -2574,7 +2598,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>16</v>
       </c>
@@ -2621,7 +2645,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>17</v>
       </c>
@@ -2668,7 +2692,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>18</v>
       </c>
@@ -2715,7 +2739,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>19</v>
       </c>
@@ -2762,7 +2786,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>20</v>
       </c>
@@ -2809,7 +2833,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>21</v>
       </c>
@@ -2856,7 +2880,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>22</v>
       </c>
@@ -2903,7 +2927,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>23</v>
       </c>
@@ -2950,7 +2974,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>24</v>
       </c>
@@ -2997,7 +3021,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>25</v>
       </c>
@@ -3044,7 +3068,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>26</v>
       </c>
@@ -3091,7 +3115,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>27</v>
       </c>
@@ -3138,7 +3162,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>28</v>
       </c>
@@ -3185,7 +3209,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>29</v>
       </c>
@@ -3232,7 +3256,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>30</v>
       </c>
@@ -3279,7 +3303,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>31</v>
       </c>
@@ -3326,7 +3350,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>32</v>
       </c>
@@ -3373,7 +3397,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>33</v>
       </c>
@@ -3420,7 +3444,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>34</v>
       </c>
@@ -3467,7 +3491,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>35</v>
       </c>
@@ -3514,7 +3538,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>36</v>
       </c>
@@ -3561,7 +3585,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>37</v>
       </c>
@@ -3608,7 +3632,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>38</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>39</v>
       </c>
@@ -3702,7 +3726,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>40</v>
       </c>
@@ -3749,7 +3773,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>41</v>
       </c>
@@ -3796,7 +3820,7 @@
         <v>1.0840000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>42</v>
       </c>
@@ -3843,7 +3867,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>43</v>
       </c>
@@ -3890,7 +3914,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>44</v>
       </c>
@@ -3937,7 +3961,7 @@
         <v>1.149</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>45</v>
       </c>
@@ -3984,7 +4008,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>46</v>
       </c>
@@ -4031,7 +4055,7 @@
         <v>1.1950000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>47</v>
       </c>
@@ -4078,7 +4102,7 @@
         <v>1.2350000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>48</v>
       </c>
@@ -4125,7 +4149,7 @@
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>49</v>
       </c>
@@ -4172,7 +4196,7 @@
         <v>1.2889999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>50</v>
       </c>
@@ -4219,7 +4243,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>51</v>
       </c>
@@ -4266,7 +4290,7 @@
         <v>1.325</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>52</v>
       </c>
@@ -4313,7 +4337,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>53</v>
       </c>
@@ -4360,7 +4384,7 @@
         <v>1.373</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>54</v>
       </c>
@@ -4407,7 +4431,7 @@
         <v>1.4219999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>55</v>
       </c>
@@ -4454,7 +4478,7 @@
         <v>1.454</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>56</v>
       </c>
@@ -4501,7 +4525,7 @@
         <v>1.4990000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>57</v>
       </c>
@@ -4548,7 +4572,7 @@
         <v>1.5209999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>58</v>
       </c>
@@ -4595,7 +4619,7 @@
         <v>1.504</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>59</v>
       </c>
@@ -4642,7 +4666,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>60</v>
       </c>
@@ -4689,7 +4713,7 @@
         <v>1.4930000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>61</v>
       </c>
@@ -4736,7 +4760,7 @@
         <v>1.3460000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>62</v>
       </c>
@@ -4783,7 +4807,7 @@
         <v>1.254</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>63</v>
       </c>
@@ -4830,7 +4854,7 @@
         <v>1.254</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>64</v>
       </c>
@@ -4877,7 +4901,7 @@
         <v>1.2989999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>65</v>
       </c>
@@ -4924,7 +4948,7 @@
         <v>1.3380000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>66</v>
       </c>
@@ -4971,7 +4995,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>67</v>
       </c>
@@ -5018,7 +5042,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>68</v>
       </c>
@@ -5065,7 +5089,7 @@
         <v>1.4059999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>69</v>
       </c>
@@ -5112,7 +5136,7 @@
         <v>1.3560000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>70</v>
       </c>
@@ -5159,7 +5183,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>71</v>
       </c>
@@ -5206,7 +5230,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>72</v>
       </c>
@@ -5253,7 +5277,7 @@
         <v>1.137</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>73</v>
       </c>
@@ -5300,7 +5324,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>74</v>
       </c>
@@ -5347,7 +5371,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>75</v>
       </c>
@@ -5394,7 +5418,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>76</v>
       </c>
@@ -5441,7 +5465,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>77</v>
       </c>
@@ -5488,7 +5512,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>78</v>
       </c>
@@ -5535,7 +5559,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>79</v>
       </c>
@@ -5582,7 +5606,7 @@
         <v>1.121</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>80</v>
       </c>
@@ -5629,7 +5653,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>81</v>
       </c>
@@ -5676,7 +5700,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>82</v>
       </c>
@@ -5723,7 +5747,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>83</v>
       </c>
@@ -5770,7 +5794,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>84</v>
       </c>
@@ -5817,7 +5841,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>85</v>
       </c>
@@ -5864,7 +5888,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>86</v>
       </c>
@@ -5911,7 +5935,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>87</v>
       </c>
@@ -5958,7 +5982,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>88</v>
       </c>
@@ -6005,7 +6029,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>89</v>
       </c>
@@ -6052,7 +6076,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>90</v>
       </c>
@@ -6099,7 +6123,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>91</v>
       </c>
@@ -6146,7 +6170,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>92</v>
       </c>
@@ -6193,7 +6217,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>93</v>
       </c>
@@ -6240,7 +6264,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>94</v>
       </c>
@@ -6287,7 +6311,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>95</v>
       </c>
@@ -6334,7 +6358,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>96</v>
       </c>
@@ -6381,7 +6405,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>97</v>
       </c>
@@ -6428,7 +6452,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>98</v>
       </c>
@@ -6475,7 +6499,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>99</v>
       </c>
@@ -6522,7 +6546,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>100</v>
       </c>
@@ -6569,7 +6593,7 @@
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>101</v>
       </c>
@@ -6616,7 +6640,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>102</v>
       </c>
@@ -6663,7 +6687,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>103</v>
       </c>
@@ -6710,7 +6734,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>104</v>
       </c>
@@ -6757,7 +6781,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>105</v>
       </c>
@@ -6804,7 +6828,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>106</v>
       </c>
@@ -6851,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>107</v>
       </c>
@@ -6898,7 +6922,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>108</v>
       </c>
@@ -6945,7 +6969,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>109</v>
       </c>
@@ -6992,7 +7016,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>110</v>
       </c>
@@ -7039,7 +7063,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>111</v>
       </c>
@@ -7086,7 +7110,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>112</v>
       </c>
@@ -7133,7 +7157,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>113</v>
       </c>
@@ -7180,7 +7204,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>114</v>
       </c>
@@ -7227,7 +7251,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>115</v>
       </c>
@@ -7274,7 +7298,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>116</v>
       </c>
@@ -7321,7 +7345,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>117</v>
       </c>
@@ -7368,7 +7392,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>118</v>
       </c>
@@ -7415,7 +7439,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>119</v>
       </c>
@@ -7462,7 +7486,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>120</v>
       </c>
@@ -7509,7 +7533,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>121</v>
       </c>
@@ -7556,7 +7580,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>122</v>
       </c>
@@ -7603,7 +7627,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>123</v>
       </c>
@@ -7650,7 +7674,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>124</v>
       </c>
@@ -7697,7 +7721,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>125</v>
       </c>
@@ -7744,7 +7768,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>126</v>
       </c>
@@ -7791,7 +7815,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>127</v>
       </c>
@@ -7838,7 +7862,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>128</v>
       </c>
@@ -7885,7 +7909,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>129</v>
       </c>
@@ -7932,7 +7956,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>130</v>
       </c>
@@ -7979,7 +8003,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>131</v>
       </c>
@@ -8026,7 +8050,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>132</v>
       </c>
@@ -8073,7 +8097,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>133</v>
       </c>
@@ -8120,7 +8144,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>134</v>
       </c>
@@ -8167,7 +8191,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>135</v>
       </c>
@@ -8214,7 +8238,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>136</v>
       </c>
@@ -8261,7 +8285,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>137</v>
       </c>
@@ -8308,7 +8332,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>138</v>
       </c>
@@ -8355,7 +8379,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>139</v>
       </c>
@@ -8402,7 +8426,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>140</v>
       </c>
@@ -8449,7 +8473,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>141</v>
       </c>
@@ -8496,7 +8520,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>142</v>
       </c>
@@ -8543,7 +8567,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>143</v>
       </c>
@@ -8590,7 +8614,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>144</v>
       </c>
@@ -8637,7 +8661,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>145</v>
       </c>
@@ -8684,7 +8708,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>146</v>
       </c>
@@ -8731,7 +8755,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>147</v>
       </c>
@@ -8778,7 +8802,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>148</v>
       </c>
@@ -8825,7 +8849,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>149</v>
       </c>
@@ -8872,7 +8896,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>150</v>
       </c>
@@ -8919,7 +8943,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>151</v>
       </c>
@@ -8966,7 +8990,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>152</v>
       </c>
@@ -9013,7 +9037,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>153</v>
       </c>
@@ -9060,7 +9084,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>154</v>
       </c>
@@ -9107,7 +9131,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>155</v>
       </c>
@@ -9154,7 +9178,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>156</v>
       </c>
@@ -9201,7 +9225,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>157</v>
       </c>
@@ -9248,7 +9272,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>158</v>
       </c>
@@ -9295,7 +9319,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>159</v>
       </c>
@@ -9342,7 +9366,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>160</v>
       </c>
@@ -9389,7 +9413,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>161</v>
       </c>
@@ -9436,7 +9460,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>162</v>
       </c>
@@ -9483,7 +9507,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>163</v>
       </c>
@@ -9530,7 +9554,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>164</v>
       </c>
@@ -9577,7 +9601,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>165</v>
       </c>
@@ -9624,7 +9648,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>166</v>
       </c>
@@ -9671,7 +9695,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>167</v>
       </c>
@@ -9718,7 +9742,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>168</v>
       </c>
@@ -9765,7 +9789,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>169</v>
       </c>
@@ -9812,7 +9836,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>170</v>
       </c>
@@ -9859,7 +9883,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>171</v>
       </c>
@@ -9906,7 +9930,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>172</v>
       </c>
@@ -9953,7 +9977,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>173</v>
       </c>
@@ -10000,7 +10024,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>174</v>
       </c>
@@ -10047,7 +10071,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>175</v>
       </c>
@@ -10094,7 +10118,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>176</v>
       </c>
@@ -10141,7 +10165,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>177</v>
       </c>
@@ -10188,7 +10212,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>178</v>
       </c>
@@ -10235,7 +10259,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>179</v>
       </c>
@@ -10282,7 +10306,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>180</v>
       </c>
@@ -10329,7 +10353,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>181</v>
       </c>
@@ -10376,7 +10400,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>182</v>
       </c>
@@ -10423,7 +10447,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>183</v>
       </c>
@@ -10470,7 +10494,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>184</v>
       </c>
@@ -10517,7 +10541,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>185</v>
       </c>
@@ -10564,7 +10588,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>186</v>
       </c>
@@ -10611,7 +10635,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>187</v>
       </c>
@@ -10658,7 +10682,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>188</v>
       </c>
@@ -10705,7 +10729,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>189</v>
       </c>
@@ -10752,7 +10776,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>190</v>
       </c>
@@ -10799,7 +10823,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>191</v>
       </c>
@@ -10846,7 +10870,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>192</v>
       </c>
@@ -10893,7 +10917,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>193</v>
       </c>
@@ -10940,7 +10964,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>194</v>
       </c>
@@ -10987,7 +11011,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>195</v>
       </c>
@@ -11034,7 +11058,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>196</v>
       </c>
@@ -11081,7 +11105,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>197</v>
       </c>
@@ -11128,7 +11152,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>198</v>
       </c>
@@ -11175,7 +11199,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>199</v>
       </c>
@@ -11222,7 +11246,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>200</v>
       </c>
@@ -11269,7 +11293,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>201</v>
       </c>
@@ -11316,7 +11340,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>202</v>
       </c>
@@ -11363,7 +11387,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>203</v>
       </c>
@@ -11410,7 +11434,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>204</v>
       </c>
@@ -11457,7 +11481,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>205</v>
       </c>
@@ -11504,7 +11528,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>206</v>
       </c>
@@ -11551,7 +11575,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>207</v>
       </c>
@@ -11598,7 +11622,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>208</v>
       </c>
@@ -11645,7 +11669,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>209</v>
       </c>
@@ -11692,7 +11716,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>210</v>
       </c>
@@ -11739,7 +11763,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>211</v>
       </c>
@@ -11786,7 +11810,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>212</v>
       </c>
@@ -11833,7 +11857,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>213</v>
       </c>
@@ -11880,7 +11904,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>214</v>
       </c>
@@ -11927,7 +11951,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>215</v>
       </c>
@@ -11974,7 +11998,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>216</v>
       </c>
@@ -12021,7 +12045,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>217</v>
       </c>
@@ -12068,7 +12092,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>218</v>
       </c>
@@ -12115,7 +12139,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>219</v>
       </c>
@@ -12162,7 +12186,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>220</v>
       </c>
@@ -12209,7 +12233,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>221</v>
       </c>
@@ -12256,7 +12280,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>222</v>
       </c>
@@ -12303,7 +12327,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>223</v>
       </c>
@@ -12350,7 +12374,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>224</v>
       </c>
@@ -12397,7 +12421,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>225</v>
       </c>
@@ -12444,7 +12468,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>226</v>
       </c>
@@ -12491,7 +12515,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>227</v>
       </c>
@@ -12538,7 +12562,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>228</v>
       </c>
@@ -12585,7 +12609,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>229</v>
       </c>
@@ -12632,7 +12656,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>230</v>
       </c>
@@ -12679,7 +12703,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>231</v>
       </c>
@@ -12726,7 +12750,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>232</v>
       </c>
@@ -12773,7 +12797,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>233</v>
       </c>
@@ -12820,7 +12844,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>234</v>
       </c>
@@ -12867,7 +12891,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>235</v>
       </c>
@@ -12914,7 +12938,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>236</v>
       </c>
@@ -12961,7 +12985,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>237</v>
       </c>
@@ -13008,7 +13032,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>238</v>
       </c>
@@ -13053,6 +13077,5541 @@
       </c>
       <c r="AE354">
         <v>-5.7000000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C345E2-7BCC-4AC9-A308-3E6546E4B62C}">
+  <dimension ref="A1:G240"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0.2</v>
+      </c>
+      <c r="B2">
+        <v>24.908000000000001</v>
+      </c>
+      <c r="C2">
+        <v>-1E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.8390000000000004</v>
+      </c>
+      <c r="E2">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>-1.1800000000000001E-3</v>
+      </c>
+      <c r="G2">
+        <v>19.838999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="B3">
+        <v>24.908000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4.8417000000000003</v>
+      </c>
+      <c r="E3">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="F3">
+        <v>-1.9000000000000001E-4</v>
+      </c>
+      <c r="G3">
+        <v>19.841699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="B4">
+        <v>24.907</v>
+      </c>
+      <c r="C4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.8644999999999996</v>
+      </c>
+      <c r="E4">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.653E-2</v>
+      </c>
+      <c r="G4">
+        <v>19.8645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B5">
+        <v>24.907</v>
+      </c>
+      <c r="C5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.8841999999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.8210000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>19.8842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0.998</v>
+      </c>
+      <c r="B6">
+        <v>24.905999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.06</v>
+      </c>
+      <c r="D6">
+        <v>4.9044999999999996</v>
+      </c>
+      <c r="E6">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F6">
+        <v>5.9569999999999998E-2</v>
+      </c>
+      <c r="G6">
+        <v>19.904499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1.198</v>
+      </c>
+      <c r="B7">
+        <v>24.905999999999999</v>
+      </c>
+      <c r="C7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.9245999999999999</v>
+      </c>
+      <c r="E7">
+        <v>4.3099999999999996E-3</v>
+      </c>
+      <c r="F7">
+        <v>7.8409999999999994E-2</v>
+      </c>
+      <c r="G7">
+        <v>19.924600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1.397</v>
+      </c>
+      <c r="B8">
+        <v>24.905999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.09</v>
+      </c>
+      <c r="D8">
+        <v>4.9394</v>
+      </c>
+      <c r="E8">
+        <v>5.0600000000000003E-3</v>
+      </c>
+      <c r="F8">
+        <v>8.967E-2</v>
+      </c>
+      <c r="G8">
+        <v>19.939399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1.597</v>
+      </c>
+      <c r="B9">
+        <v>24.905999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.105</v>
+      </c>
+      <c r="D9">
+        <v>4.9638</v>
+      </c>
+      <c r="E9">
+        <v>6.2899999999999996E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.10532999999999999</v>
+      </c>
+      <c r="G9">
+        <v>19.963799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1.796</v>
+      </c>
+      <c r="B10">
+        <v>24.905000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D10">
+        <v>4.9836</v>
+      </c>
+      <c r="E10">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.11836000000000001</v>
+      </c>
+      <c r="G10">
+        <v>19.983599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1.996</v>
+      </c>
+      <c r="B11">
+        <v>24.905000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D11">
+        <v>5.0038999999999998</v>
+      </c>
+      <c r="E11">
+        <v>8.3099999999999997E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="G11">
+        <v>20.003900000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="B12">
+        <v>24.904</v>
+      </c>
+      <c r="C12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D12">
+        <v>5.0246000000000004</v>
+      </c>
+      <c r="E12">
+        <v>9.3500000000000007E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.14288999999999999</v>
+      </c>
+      <c r="G12">
+        <v>20.0246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2.395</v>
+      </c>
+      <c r="B13">
+        <v>24.904</v>
+      </c>
+      <c r="C13">
+        <v>0.154</v>
+      </c>
+      <c r="D13">
+        <v>5.0404999999999998</v>
+      </c>
+      <c r="E13">
+        <v>1.0160000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.15398999999999999</v>
+      </c>
+      <c r="G13">
+        <v>20.040500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="B14">
+        <v>24.904</v>
+      </c>
+      <c r="C14">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D14">
+        <v>5.0667999999999997</v>
+      </c>
+      <c r="E14">
+        <v>1.1480000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.16658999999999999</v>
+      </c>
+      <c r="G14">
+        <v>20.066800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2.794</v>
+      </c>
+      <c r="B15">
+        <v>24.904</v>
+      </c>
+      <c r="C15">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D15">
+        <v>5.0871000000000004</v>
+      </c>
+      <c r="E15">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.18087</v>
+      </c>
+      <c r="G15">
+        <v>20.0871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="B16">
+        <v>24.902999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.191</v>
+      </c>
+      <c r="D16">
+        <v>5.1073000000000004</v>
+      </c>
+      <c r="E16">
+        <v>1.3520000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.19078000000000001</v>
+      </c>
+      <c r="G16">
+        <v>20.107299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3.194</v>
+      </c>
+      <c r="B17">
+        <v>24.902000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D17">
+        <v>5.1288</v>
+      </c>
+      <c r="E17">
+        <v>1.46E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.20286000000000001</v>
+      </c>
+      <c r="G17">
+        <v>20.128799999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3.3929999999999998</v>
+      </c>
+      <c r="B18">
+        <v>24.902000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.216</v>
+      </c>
+      <c r="D18">
+        <v>5.1441999999999997</v>
+      </c>
+      <c r="E18">
+        <v>1.538E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.21615999999999999</v>
+      </c>
+      <c r="G18">
+        <v>20.144200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3.593</v>
+      </c>
+      <c r="B19">
+        <v>24.901</v>
+      </c>
+      <c r="C19">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D19">
+        <v>5.1643999999999997</v>
+      </c>
+      <c r="E19">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.23075999999999999</v>
+      </c>
+      <c r="G19">
+        <v>20.164400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3.7919999999999998</v>
+      </c>
+      <c r="B20">
+        <v>24.901</v>
+      </c>
+      <c r="C20">
+        <v>0.251</v>
+      </c>
+      <c r="D20">
+        <v>5.1906999999999996</v>
+      </c>
+      <c r="E20">
+        <v>1.772E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.25107000000000002</v>
+      </c>
+      <c r="G20">
+        <v>20.1907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>3.992</v>
+      </c>
+      <c r="B21">
+        <v>24.901</v>
+      </c>
+      <c r="C21">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D21">
+        <v>5.2122000000000002</v>
+      </c>
+      <c r="E21">
+        <v>1.881E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.26363999999999999</v>
+      </c>
+      <c r="G21">
+        <v>20.212199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4.1920000000000002</v>
+      </c>
+      <c r="B22">
+        <v>24.901</v>
+      </c>
+      <c r="C22">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D22">
+        <v>5.2333999999999996</v>
+      </c>
+      <c r="E22">
+        <v>1.9879999999999998E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.28132000000000001</v>
+      </c>
+      <c r="G22">
+        <v>20.2334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>4.391</v>
+      </c>
+      <c r="B23">
+        <v>24.9</v>
+      </c>
+      <c r="C23">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D23">
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="E23">
+        <v>2.0660000000000001E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="G23">
+        <v>20.248999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>4.5910000000000002</v>
+      </c>
+      <c r="B24">
+        <v>24.9</v>
+      </c>
+      <c r="C24">
+        <v>0.317</v>
+      </c>
+      <c r="D24">
+        <v>5.2694000000000001</v>
+      </c>
+      <c r="E24">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.31678000000000001</v>
+      </c>
+      <c r="G24">
+        <v>20.269400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>4.79</v>
+      </c>
+      <c r="B25">
+        <v>24.9</v>
+      </c>
+      <c r="C25">
+        <v>0.35</v>
+      </c>
+      <c r="D25">
+        <v>5.2942</v>
+      </c>
+      <c r="E25">
+        <v>2.2939999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.34976000000000002</v>
+      </c>
+      <c r="G25">
+        <v>20.2942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>4.99</v>
+      </c>
+      <c r="B26">
+        <v>24.899000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D26">
+        <v>5.3140999999999998</v>
+      </c>
+      <c r="E26">
+        <v>2.3949999999999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="G26">
+        <v>20.3141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>5.19</v>
+      </c>
+      <c r="B27">
+        <v>24.899000000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D27">
+        <v>5.3343999999999996</v>
+      </c>
+      <c r="E27">
+        <v>2.4969999999999999E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.39480999999999999</v>
+      </c>
+      <c r="G27">
+        <v>20.334399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>5.3890000000000002</v>
+      </c>
+      <c r="B28">
+        <v>24.899000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D28">
+        <v>5.3501000000000003</v>
+      </c>
+      <c r="E28">
+        <v>2.5760000000000002E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.42420000000000002</v>
+      </c>
+      <c r="G28">
+        <v>20.350100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>5.5890000000000004</v>
+      </c>
+      <c r="B29">
+        <v>24.898</v>
+      </c>
+      <c r="C29">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D29">
+        <v>5.3707000000000003</v>
+      </c>
+      <c r="E29">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.45523999999999998</v>
+      </c>
+      <c r="G29">
+        <v>20.370699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5.7880000000000003</v>
+      </c>
+      <c r="B30">
+        <v>24.898</v>
+      </c>
+      <c r="C30">
+        <v>0.497</v>
+      </c>
+      <c r="D30">
+        <v>5.3954000000000004</v>
+      </c>
+      <c r="E30">
+        <v>2.8039999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.49714999999999998</v>
+      </c>
+      <c r="G30">
+        <v>20.395399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>5.9880000000000004</v>
+      </c>
+      <c r="B31">
+        <v>24.896999999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D31">
+        <v>5.4142000000000001</v>
+      </c>
+      <c r="E31">
+        <v>2.8989999999999998E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.53166000000000002</v>
+      </c>
+      <c r="G31">
+        <v>20.414200000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="B32">
+        <v>24.896999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D32">
+        <v>5.4337999999999997</v>
+      </c>
+      <c r="E32">
+        <v>2.998E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.56113000000000002</v>
+      </c>
+      <c r="G32">
+        <v>20.433800000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>6.3869999999999996</v>
+      </c>
+      <c r="B33">
+        <v>24.896999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+      <c r="D33">
+        <v>5.4482999999999997</v>
+      </c>
+      <c r="E33">
+        <v>3.0710000000000001E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.60024999999999995</v>
+      </c>
+      <c r="G33">
+        <v>20.4483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>6.5869999999999997</v>
+      </c>
+      <c r="B34">
+        <v>24.896000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.63</v>
+      </c>
+      <c r="D34">
+        <v>5.4673999999999996</v>
+      </c>
+      <c r="E34">
+        <v>3.1669999999999997E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.63041000000000003</v>
+      </c>
+      <c r="G34">
+        <v>20.467400000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="B35">
+        <v>24.896000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D35">
+        <v>5.4927000000000001</v>
+      </c>
+      <c r="E35">
+        <v>3.295E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.69238</v>
+      </c>
+      <c r="G35">
+        <v>20.492699999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>6.9859999999999998</v>
+      </c>
+      <c r="B36">
+        <v>24.896000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D36">
+        <v>5.5133000000000001</v>
+      </c>
+      <c r="E36">
+        <v>3.3989999999999999E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.72772000000000003</v>
+      </c>
+      <c r="G36">
+        <v>20.513300000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>7.1859999999999999</v>
+      </c>
+      <c r="B37">
+        <v>24.895</v>
+      </c>
+      <c r="C37">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D37">
+        <v>5.5335000000000001</v>
+      </c>
+      <c r="E37">
+        <v>3.5009999999999999E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="G37">
+        <v>20.5335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>7.3849999999999998</v>
+      </c>
+      <c r="B38">
+        <v>24.895</v>
+      </c>
+      <c r="C38">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D38">
+        <v>5.5484</v>
+      </c>
+      <c r="E38">
+        <v>3.576E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.82415000000000005</v>
+      </c>
+      <c r="G38">
+        <v>20.548400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>7.585</v>
+      </c>
+      <c r="B39">
+        <v>24.895</v>
+      </c>
+      <c r="C39">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D39">
+        <v>5.5728999999999997</v>
+      </c>
+      <c r="E39">
+        <v>3.6990000000000002E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.88851999999999998</v>
+      </c>
+      <c r="G39">
+        <v>20.572900000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>7.7839999999999998</v>
+      </c>
+      <c r="B40">
+        <v>24.895</v>
+      </c>
+      <c r="C40">
+        <v>0.94</v>
+      </c>
+      <c r="D40">
+        <v>5.5926</v>
+      </c>
+      <c r="E40">
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.93984000000000001</v>
+      </c>
+      <c r="G40">
+        <v>20.592600000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>7.984</v>
+      </c>
+      <c r="B41">
+        <v>24.893999999999998</v>
+      </c>
+      <c r="C41">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D41">
+        <v>5.6128</v>
+      </c>
+      <c r="E41">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.97765000000000002</v>
+      </c>
+      <c r="G41">
+        <v>20.6128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>8.1839999999999993</v>
+      </c>
+      <c r="B42">
+        <v>24.893999999999998</v>
+      </c>
+      <c r="C42">
+        <v>1.03</v>
+      </c>
+      <c r="D42">
+        <v>5.6333000000000002</v>
+      </c>
+      <c r="E42">
+        <v>4.0039999999999999E-2</v>
+      </c>
+      <c r="F42">
+        <v>1.0302100000000001</v>
+      </c>
+      <c r="G42">
+        <v>20.633400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>8.3829999999999991</v>
+      </c>
+      <c r="B43">
+        <v>24.893999999999998</v>
+      </c>
+      <c r="C43">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="D43">
+        <v>5.6547000000000001</v>
+      </c>
+      <c r="E43">
+        <v>4.1119999999999997E-2</v>
+      </c>
+      <c r="F43">
+        <v>1.08412</v>
+      </c>
+      <c r="G43">
+        <v>20.654699999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>8.5830000000000002</v>
+      </c>
+      <c r="B44">
+        <v>24.893999999999998</v>
+      </c>
+      <c r="C44">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D44">
+        <v>5.6755000000000004</v>
+      </c>
+      <c r="E44">
+        <v>4.2160000000000003E-2</v>
+      </c>
+      <c r="F44">
+        <v>1.14988</v>
+      </c>
+      <c r="G44">
+        <v>20.6755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>8.782</v>
+      </c>
+      <c r="B45">
+        <v>24.893000000000001</v>
+      </c>
+      <c r="C45">
+        <v>1.169</v>
+      </c>
+      <c r="D45">
+        <v>5.6905999999999999</v>
+      </c>
+      <c r="E45">
+        <v>4.292E-2</v>
+      </c>
+      <c r="F45">
+        <v>1.16909</v>
+      </c>
+      <c r="G45">
+        <v>20.6906</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>8.9819999999999993</v>
+      </c>
+      <c r="B46">
+        <v>24.893000000000001</v>
+      </c>
+      <c r="C46">
+        <v>1.149</v>
+      </c>
+      <c r="D46">
+        <v>5.7154999999999996</v>
+      </c>
+      <c r="E46">
+        <v>4.4179999999999997E-2</v>
+      </c>
+      <c r="F46">
+        <v>1.1486400000000001</v>
+      </c>
+      <c r="G46">
+        <v>20.715499999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>9.1820000000000004</v>
+      </c>
+      <c r="B47">
+        <v>24.893000000000001</v>
+      </c>
+      <c r="C47">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="D47">
+        <v>5.7363</v>
+      </c>
+      <c r="E47">
+        <v>4.5229999999999999E-2</v>
+      </c>
+      <c r="F47">
+        <v>1.16788</v>
+      </c>
+      <c r="G47">
+        <v>20.7363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>9.3810000000000002</v>
+      </c>
+      <c r="B48">
+        <v>24.893000000000001</v>
+      </c>
+      <c r="C48">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="D48">
+        <v>5.7561999999999998</v>
+      </c>
+      <c r="E48">
+        <v>4.623E-2</v>
+      </c>
+      <c r="F48">
+        <v>1.1948399999999999</v>
+      </c>
+      <c r="G48">
+        <v>20.7563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>9.5809999999999995</v>
+      </c>
+      <c r="B49">
+        <v>24.893000000000001</v>
+      </c>
+      <c r="C49">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="D49">
+        <v>5.7709000000000001</v>
+      </c>
+      <c r="E49">
+        <v>4.6969999999999998E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.23509</v>
+      </c>
+      <c r="G49">
+        <v>20.770900000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="B50">
+        <v>24.893000000000001</v>
+      </c>
+      <c r="C50">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="D50">
+        <v>5.7912999999999997</v>
+      </c>
+      <c r="E50">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F50">
+        <v>1.2806299999999999</v>
+      </c>
+      <c r="G50">
+        <v>20.7913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>9.98</v>
+      </c>
+      <c r="B51">
+        <v>24.893000000000001</v>
+      </c>
+      <c r="C51">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="D51">
+        <v>5.8175999999999997</v>
+      </c>
+      <c r="E51">
+        <v>4.9320000000000003E-2</v>
+      </c>
+      <c r="F51">
+        <v>1.28921</v>
+      </c>
+      <c r="G51">
+        <v>20.817599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>10.18</v>
+      </c>
+      <c r="B52">
+        <v>24.893000000000001</v>
+      </c>
+      <c r="C52">
+        <v>1.31</v>
+      </c>
+      <c r="D52">
+        <v>5.8380999999999998</v>
+      </c>
+      <c r="E52">
+        <v>5.0360000000000002E-2</v>
+      </c>
+      <c r="F52">
+        <v>1.3103499999999999</v>
+      </c>
+      <c r="G52">
+        <v>20.838100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>10.379</v>
+      </c>
+      <c r="B53">
+        <v>24.893999999999998</v>
+      </c>
+      <c r="C53">
+        <v>1.325</v>
+      </c>
+      <c r="D53">
+        <v>5.8531000000000004</v>
+      </c>
+      <c r="E53">
+        <v>5.1119999999999999E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.3254600000000001</v>
+      </c>
+      <c r="G53">
+        <v>20.853100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>10.579000000000001</v>
+      </c>
+      <c r="B54">
+        <v>24.893999999999998</v>
+      </c>
+      <c r="C54">
+        <v>1.34</v>
+      </c>
+      <c r="D54">
+        <v>5.8727999999999998</v>
+      </c>
+      <c r="E54">
+        <v>5.2109999999999997E-2</v>
+      </c>
+      <c r="F54">
+        <v>1.34026</v>
+      </c>
+      <c r="G54">
+        <v>20.872800000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>10.778</v>
+      </c>
+      <c r="B55">
+        <v>24.893999999999998</v>
+      </c>
+      <c r="C55">
+        <v>1.373</v>
+      </c>
+      <c r="D55">
+        <v>5.8918999999999997</v>
+      </c>
+      <c r="E55">
+        <v>5.3069999999999999E-2</v>
+      </c>
+      <c r="F55">
+        <v>1.3732</v>
+      </c>
+      <c r="G55">
+        <v>20.8919</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>10.978</v>
+      </c>
+      <c r="B56">
+        <v>24.893999999999998</v>
+      </c>
+      <c r="C56">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="D56">
+        <v>5.9157999999999999</v>
+      </c>
+      <c r="E56">
+        <v>5.4269999999999999E-2</v>
+      </c>
+      <c r="F56">
+        <v>1.4219599999999999</v>
+      </c>
+      <c r="G56">
+        <v>20.915800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>11.178000000000001</v>
+      </c>
+      <c r="B57">
+        <v>24.895</v>
+      </c>
+      <c r="C57">
+        <v>1.454</v>
+      </c>
+      <c r="D57">
+        <v>5.9352999999999998</v>
+      </c>
+      <c r="E57">
+        <v>5.5259999999999997E-2</v>
+      </c>
+      <c r="F57">
+        <v>1.45435</v>
+      </c>
+      <c r="G57">
+        <v>20.935300000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>11.377000000000001</v>
+      </c>
+      <c r="B58">
+        <v>24.895</v>
+      </c>
+      <c r="C58">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="D58">
+        <v>5.9557000000000002</v>
+      </c>
+      <c r="E58">
+        <v>5.629E-2</v>
+      </c>
+      <c r="F58">
+        <v>1.49901</v>
+      </c>
+      <c r="G58">
+        <v>20.9557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>11.577</v>
+      </c>
+      <c r="B59">
+        <v>24.896000000000001</v>
+      </c>
+      <c r="C59">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="D59">
+        <v>5.9706000000000001</v>
+      </c>
+      <c r="E59">
+        <v>5.704E-2</v>
+      </c>
+      <c r="F59">
+        <v>1.5214799999999999</v>
+      </c>
+      <c r="G59">
+        <v>20.970600000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>11.776</v>
+      </c>
+      <c r="B60">
+        <v>24.896000000000001</v>
+      </c>
+      <c r="C60">
+        <v>1.504</v>
+      </c>
+      <c r="D60">
+        <v>5.9897</v>
+      </c>
+      <c r="E60">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F60">
+        <v>1.50404</v>
+      </c>
+      <c r="G60">
+        <v>20.989699999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>11.976000000000001</v>
+      </c>
+      <c r="B61">
+        <v>24.896999999999998</v>
+      </c>
+      <c r="C61">
+        <v>1.49</v>
+      </c>
+      <c r="D61">
+        <v>6.0126999999999997</v>
+      </c>
+      <c r="E61">
+        <v>5.9159999999999997E-2</v>
+      </c>
+      <c r="F61">
+        <v>1.48987</v>
+      </c>
+      <c r="G61">
+        <v>21.012699999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>12.176</v>
+      </c>
+      <c r="B62">
+        <v>24.896999999999998</v>
+      </c>
+      <c r="C62">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="D62">
+        <v>6.0317999999999996</v>
+      </c>
+      <c r="E62">
+        <v>6.012E-2</v>
+      </c>
+      <c r="F62">
+        <v>1.49316</v>
+      </c>
+      <c r="G62">
+        <v>21.0318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>12.375</v>
+      </c>
+      <c r="B63">
+        <v>24.898</v>
+      </c>
+      <c r="C63">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="D63">
+        <v>6.0503999999999998</v>
+      </c>
+      <c r="E63">
+        <v>6.1060000000000003E-2</v>
+      </c>
+      <c r="F63">
+        <v>1.34649</v>
+      </c>
+      <c r="G63">
+        <v>21.0504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>12.574999999999999</v>
+      </c>
+      <c r="B64">
+        <v>24.899000000000001</v>
+      </c>
+      <c r="C64">
+        <v>1.254</v>
+      </c>
+      <c r="D64">
+        <v>6.0646000000000004</v>
+      </c>
+      <c r="E64">
+        <v>6.1780000000000002E-2</v>
+      </c>
+      <c r="F64">
+        <v>1.2543200000000001</v>
+      </c>
+      <c r="G64">
+        <v>21.064599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>12.773999999999999</v>
+      </c>
+      <c r="B65">
+        <v>24.9</v>
+      </c>
+      <c r="C65">
+        <v>1.254</v>
+      </c>
+      <c r="D65">
+        <v>6.0842999999999998</v>
+      </c>
+      <c r="E65">
+        <v>6.2770000000000006E-2</v>
+      </c>
+      <c r="F65">
+        <v>1.2541500000000001</v>
+      </c>
+      <c r="G65">
+        <v>21.084299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>12.974</v>
+      </c>
+      <c r="B66">
+        <v>24.9</v>
+      </c>
+      <c r="C66">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="D66">
+        <v>6.1097999999999999</v>
+      </c>
+      <c r="E66">
+        <v>6.4049999999999996E-2</v>
+      </c>
+      <c r="F66">
+        <v>1.29941</v>
+      </c>
+      <c r="G66">
+        <v>21.1098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>13.173999999999999</v>
+      </c>
+      <c r="B67">
+        <v>24.901</v>
+      </c>
+      <c r="C67">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="D67">
+        <v>6.1299000000000001</v>
+      </c>
+      <c r="E67">
+        <v>6.5060000000000007E-2</v>
+      </c>
+      <c r="F67">
+        <v>1.3381400000000001</v>
+      </c>
+      <c r="G67">
+        <v>21.129899999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>13.372999999999999</v>
+      </c>
+      <c r="B68">
+        <v>24.902000000000001</v>
+      </c>
+      <c r="C68">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="D68">
+        <v>6.1496000000000004</v>
+      </c>
+      <c r="E68">
+        <v>6.6059999999999994E-2</v>
+      </c>
+      <c r="F68">
+        <v>1.36822</v>
+      </c>
+      <c r="G68">
+        <v>21.1496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>13.573</v>
+      </c>
+      <c r="B69">
+        <v>24.902000000000001</v>
+      </c>
+      <c r="C69">
+        <v>1.385</v>
+      </c>
+      <c r="D69">
+        <v>6.1641000000000004</v>
+      </c>
+      <c r="E69">
+        <v>6.6790000000000002E-2</v>
+      </c>
+      <c r="F69">
+        <v>1.38541</v>
+      </c>
+      <c r="G69">
+        <v>21.164100000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>13.772</v>
+      </c>
+      <c r="B70">
+        <v>24.902999999999999</v>
+      </c>
+      <c r="C70">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="D70">
+        <v>6.1837999999999997</v>
+      </c>
+      <c r="E70">
+        <v>6.7790000000000003E-2</v>
+      </c>
+      <c r="F70">
+        <v>1.4061300000000001</v>
+      </c>
+      <c r="G70">
+        <v>21.183800000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>13.972</v>
+      </c>
+      <c r="B71">
+        <v>24.904</v>
+      </c>
+      <c r="C71">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="D71">
+        <v>6.2089999999999996</v>
+      </c>
+      <c r="E71">
+        <v>6.9059999999999996E-2</v>
+      </c>
+      <c r="F71">
+        <v>1.35562</v>
+      </c>
+      <c r="G71">
+        <v>21.209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>14.172000000000001</v>
+      </c>
+      <c r="B72">
+        <v>24.905000000000001</v>
+      </c>
+      <c r="C72">
+        <v>1.25</v>
+      </c>
+      <c r="D72">
+        <v>6.2298</v>
+      </c>
+      <c r="E72">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="F72">
+        <v>1.2497799999999999</v>
+      </c>
+      <c r="G72">
+        <v>21.229800000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>14.371</v>
+      </c>
+      <c r="B73">
+        <v>24.905000000000001</v>
+      </c>
+      <c r="C73">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="D73">
+        <v>6.2512999999999996</v>
+      </c>
+      <c r="E73">
+        <v>7.1190000000000003E-2</v>
+      </c>
+      <c r="F73">
+        <v>1.18431</v>
+      </c>
+      <c r="G73">
+        <v>21.251300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>14.571</v>
+      </c>
+      <c r="B74">
+        <v>24.905999999999999</v>
+      </c>
+      <c r="C74">
+        <v>1.137</v>
+      </c>
+      <c r="D74">
+        <v>6.2721999999999998</v>
+      </c>
+      <c r="E74">
+        <v>7.2239999999999999E-2</v>
+      </c>
+      <c r="F74">
+        <v>1.1367400000000001</v>
+      </c>
+      <c r="G74">
+        <v>21.272200000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>14.77</v>
+      </c>
+      <c r="B75">
+        <v>24.905999999999999</v>
+      </c>
+      <c r="C75">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="D75">
+        <v>6.2873000000000001</v>
+      </c>
+      <c r="E75">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F75">
+        <v>1.12368</v>
+      </c>
+      <c r="G75">
+        <v>21.287299999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>14.97</v>
+      </c>
+      <c r="B76">
+        <v>24.907</v>
+      </c>
+      <c r="C76">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D76">
+        <v>6.3075000000000001</v>
+      </c>
+      <c r="E76">
+        <v>7.4020000000000002E-2</v>
+      </c>
+      <c r="F76">
+        <v>1.11042</v>
+      </c>
+      <c r="G76">
+        <v>21.307500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>15.17</v>
+      </c>
+      <c r="B77">
+        <v>24.907</v>
+      </c>
+      <c r="C77">
+        <v>1.111</v>
+      </c>
+      <c r="D77">
+        <v>6.3338999999999999</v>
+      </c>
+      <c r="E77">
+        <v>7.535E-2</v>
+      </c>
+      <c r="F77">
+        <v>1.1107400000000001</v>
+      </c>
+      <c r="G77">
+        <v>21.3339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>15.369</v>
+      </c>
+      <c r="B78">
+        <v>24.908000000000001</v>
+      </c>
+      <c r="C78">
+        <v>1.083</v>
+      </c>
+      <c r="D78">
+        <v>6.3536999999999999</v>
+      </c>
+      <c r="E78">
+        <v>7.6350000000000001E-2</v>
+      </c>
+      <c r="F78">
+        <v>1.0828899999999999</v>
+      </c>
+      <c r="G78">
+        <v>21.3537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>15.569000000000001</v>
+      </c>
+      <c r="B79">
+        <v>24.908999999999999</v>
+      </c>
+      <c r="C79">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="D79">
+        <v>6.3735999999999997</v>
+      </c>
+      <c r="E79">
+        <v>7.7350000000000002E-2</v>
+      </c>
+      <c r="F79">
+        <v>1.0859000000000001</v>
+      </c>
+      <c r="G79">
+        <v>21.3736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>15.768000000000001</v>
+      </c>
+      <c r="B80">
+        <v>24.908999999999999</v>
+      </c>
+      <c r="C80">
+        <v>1.105</v>
+      </c>
+      <c r="D80">
+        <v>6.3891999999999998</v>
+      </c>
+      <c r="E80">
+        <v>7.8140000000000001E-2</v>
+      </c>
+      <c r="F80">
+        <v>1.1051899999999999</v>
+      </c>
+      <c r="G80">
+        <v>21.389199999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>15.968</v>
+      </c>
+      <c r="B81">
+        <v>24.91</v>
+      </c>
+      <c r="C81">
+        <v>1.121</v>
+      </c>
+      <c r="D81">
+        <v>6.4107000000000003</v>
+      </c>
+      <c r="E81">
+        <v>7.9219999999999999E-2</v>
+      </c>
+      <c r="F81">
+        <v>1.1211199999999999</v>
+      </c>
+      <c r="G81">
+        <v>21.410699999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>16.167999999999999</v>
+      </c>
+      <c r="B82">
+        <v>24.911000000000001</v>
+      </c>
+      <c r="C82">
+        <v>1.107</v>
+      </c>
+      <c r="D82">
+        <v>6.4367000000000001</v>
+      </c>
+      <c r="E82">
+        <v>8.0530000000000004E-2</v>
+      </c>
+      <c r="F82">
+        <v>1.1071500000000001</v>
+      </c>
+      <c r="G82">
+        <v>21.436699999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>16.367000000000001</v>
+      </c>
+      <c r="B83">
+        <v>24.911000000000001</v>
+      </c>
+      <c r="C83">
+        <v>1.111</v>
+      </c>
+      <c r="D83">
+        <v>6.4573</v>
+      </c>
+      <c r="E83">
+        <v>8.1570000000000004E-2</v>
+      </c>
+      <c r="F83">
+        <v>1.1108100000000001</v>
+      </c>
+      <c r="G83">
+        <v>21.4573</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>16.567</v>
+      </c>
+      <c r="B84">
+        <v>24.911999999999999</v>
+      </c>
+      <c r="C84">
+        <v>1.133</v>
+      </c>
+      <c r="D84">
+        <v>6.4770000000000003</v>
+      </c>
+      <c r="E84">
+        <v>8.2559999999999995E-2</v>
+      </c>
+      <c r="F84">
+        <v>1.1326799999999999</v>
+      </c>
+      <c r="G84">
+        <v>21.477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>16.765999999999998</v>
+      </c>
+      <c r="B85">
+        <v>24.911999999999999</v>
+      </c>
+      <c r="C85">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D85">
+        <v>6.4915000000000003</v>
+      </c>
+      <c r="E85">
+        <v>8.3290000000000003E-2</v>
+      </c>
+      <c r="F85">
+        <v>1.1403099999999999</v>
+      </c>
+      <c r="G85">
+        <v>21.491499999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>16.966000000000001</v>
+      </c>
+      <c r="B86">
+        <v>24.913</v>
+      </c>
+      <c r="C86">
+        <v>1.135</v>
+      </c>
+      <c r="D86">
+        <v>6.5107999999999997</v>
+      </c>
+      <c r="E86">
+        <v>8.4269999999999998E-2</v>
+      </c>
+      <c r="F86">
+        <v>1.1352500000000001</v>
+      </c>
+      <c r="G86">
+        <v>21.5108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>17.166</v>
+      </c>
+      <c r="B87">
+        <v>24.914000000000001</v>
+      </c>
+      <c r="C87">
+        <v>1.133</v>
+      </c>
+      <c r="D87">
+        <v>6.5305</v>
+      </c>
+      <c r="E87">
+        <v>8.5260000000000002E-2</v>
+      </c>
+      <c r="F87">
+        <v>1.1334599999999999</v>
+      </c>
+      <c r="G87">
+        <v>21.5305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>17.364999999999998</v>
+      </c>
+      <c r="B88">
+        <v>24.914999999999999</v>
+      </c>
+      <c r="C88">
+        <v>1.04</v>
+      </c>
+      <c r="D88">
+        <v>6.5561999999999996</v>
+      </c>
+      <c r="E88">
+        <v>8.6550000000000002E-2</v>
+      </c>
+      <c r="F88">
+        <v>1.03979</v>
+      </c>
+      <c r="G88">
+        <v>21.5562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>17.565000000000001</v>
+      </c>
+      <c r="B89">
+        <v>24.914999999999999</v>
+      </c>
+      <c r="C89">
+        <v>0.997</v>
+      </c>
+      <c r="D89">
+        <v>6.5762</v>
+      </c>
+      <c r="E89">
+        <v>8.7559999999999999E-2</v>
+      </c>
+      <c r="F89">
+        <v>0.99741000000000002</v>
+      </c>
+      <c r="G89">
+        <v>21.5762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>17.763999999999999</v>
+      </c>
+      <c r="B90">
+        <v>24.914999999999999</v>
+      </c>
+      <c r="C90">
+        <v>0.98</v>
+      </c>
+      <c r="D90">
+        <v>6.5955000000000004</v>
+      </c>
+      <c r="E90">
+        <v>8.8539999999999994E-2</v>
+      </c>
+      <c r="F90">
+        <v>0.97994999999999999</v>
+      </c>
+      <c r="G90">
+        <v>21.595500000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>17.963999999999999</v>
+      </c>
+      <c r="B91">
+        <v>24.916</v>
+      </c>
+      <c r="C91">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D91">
+        <v>6.6093999999999999</v>
+      </c>
+      <c r="E91">
+        <v>8.924E-2</v>
+      </c>
+      <c r="F91">
+        <v>0.97706000000000004</v>
+      </c>
+      <c r="G91">
+        <v>21.609400000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>18.164000000000001</v>
+      </c>
+      <c r="B92">
+        <v>24.917000000000002</v>
+      </c>
+      <c r="C92">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D92">
+        <v>6.6283000000000003</v>
+      </c>
+      <c r="E92">
+        <v>9.0190000000000006E-2</v>
+      </c>
+      <c r="F92">
+        <v>0.97833000000000003</v>
+      </c>
+      <c r="G92">
+        <v>21.628299999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>18.363</v>
+      </c>
+      <c r="B93">
+        <v>24.917999999999999</v>
+      </c>
+      <c r="C93">
+        <v>0.97</v>
+      </c>
+      <c r="D93">
+        <v>6.6523000000000003</v>
+      </c>
+      <c r="E93">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="F93">
+        <v>0.97001000000000004</v>
+      </c>
+      <c r="G93">
+        <v>21.6523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>18.562999999999999</v>
+      </c>
+      <c r="B94">
+        <v>24.917999999999999</v>
+      </c>
+      <c r="C94">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D94">
+        <v>6.6711</v>
+      </c>
+      <c r="E94">
+        <v>9.2350000000000002E-2</v>
+      </c>
+      <c r="F94">
+        <v>0.95723000000000003</v>
+      </c>
+      <c r="G94">
+        <v>21.671099999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>18.762</v>
+      </c>
+      <c r="B95">
+        <v>24.919</v>
+      </c>
+      <c r="C95">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D95">
+        <v>6.6859000000000002</v>
+      </c>
+      <c r="E95">
+        <v>9.3090000000000006E-2</v>
+      </c>
+      <c r="F95">
+        <v>0.94862999999999997</v>
+      </c>
+      <c r="G95">
+        <v>21.6859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>18.962</v>
+      </c>
+      <c r="B96">
+        <v>24.919</v>
+      </c>
+      <c r="C96">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D96">
+        <v>6.7062999999999997</v>
+      </c>
+      <c r="E96">
+        <v>9.4119999999999995E-2</v>
+      </c>
+      <c r="F96">
+        <v>0.94908000000000003</v>
+      </c>
+      <c r="G96">
+        <v>21.706299999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>19.161999999999999</v>
+      </c>
+      <c r="B97">
+        <v>24.92</v>
+      </c>
+      <c r="C97">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D97">
+        <v>6.7266000000000004</v>
+      </c>
+      <c r="E97">
+        <v>9.5140000000000002E-2</v>
+      </c>
+      <c r="F97">
+        <v>0.95318999999999998</v>
+      </c>
+      <c r="G97">
+        <v>21.726600000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>19.361000000000001</v>
+      </c>
+      <c r="B98">
+        <v>24.920999999999999</v>
+      </c>
+      <c r="C98">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D98">
+        <v>6.7511999999999999</v>
+      </c>
+      <c r="E98">
+        <v>9.6390000000000003E-2</v>
+      </c>
+      <c r="F98">
+        <v>0.94257000000000002</v>
+      </c>
+      <c r="G98">
+        <v>21.751200000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>19.561</v>
+      </c>
+      <c r="B99">
+        <v>24.922000000000001</v>
+      </c>
+      <c r="C99">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D99">
+        <v>6.7704000000000004</v>
+      </c>
+      <c r="E99">
+        <v>9.7350000000000006E-2</v>
+      </c>
+      <c r="F99">
+        <v>0.94415000000000004</v>
+      </c>
+      <c r="G99">
+        <v>21.770399999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="B100">
+        <v>24.922000000000001</v>
+      </c>
+      <c r="C100">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D100">
+        <v>6.7899000000000003</v>
+      </c>
+      <c r="E100">
+        <v>9.8339999999999997E-2</v>
+      </c>
+      <c r="F100">
+        <v>0.94733000000000001</v>
+      </c>
+      <c r="G100">
+        <v>21.789899999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>19.96</v>
+      </c>
+      <c r="B101">
+        <v>24.922999999999998</v>
+      </c>
+      <c r="C101">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D101">
+        <v>6.8097000000000003</v>
+      </c>
+      <c r="E101">
+        <v>9.9330000000000002E-2</v>
+      </c>
+      <c r="F101">
+        <v>0.95326</v>
+      </c>
+      <c r="G101">
+        <v>21.809699999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>20.16</v>
+      </c>
+      <c r="B102">
+        <v>24.922999999999998</v>
+      </c>
+      <c r="C102">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D102">
+        <v>6.8300999999999998</v>
+      </c>
+      <c r="E102">
+        <v>0.10036</v>
+      </c>
+      <c r="F102">
+        <v>0.96357000000000004</v>
+      </c>
+      <c r="G102">
+        <v>21.830100000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>20.359000000000002</v>
+      </c>
+      <c r="B103">
+        <v>24.923999999999999</v>
+      </c>
+      <c r="C103">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D103">
+        <v>6.8510999999999997</v>
+      </c>
+      <c r="E103">
+        <v>0.10142</v>
+      </c>
+      <c r="F103">
+        <v>0.96689000000000003</v>
+      </c>
+      <c r="G103">
+        <v>21.851099999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>20.559000000000001</v>
+      </c>
+      <c r="B104">
+        <v>24.925000000000001</v>
+      </c>
+      <c r="C104">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="D104">
+        <v>6.8716999999999997</v>
+      </c>
+      <c r="E104">
+        <v>0.10246</v>
+      </c>
+      <c r="F104">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="G104">
+        <v>21.871700000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>20.757999999999999</v>
+      </c>
+      <c r="B105">
+        <v>24.925000000000001</v>
+      </c>
+      <c r="C105">
+        <v>0.74</v>
+      </c>
+      <c r="D105">
+        <v>6.8917999999999999</v>
+      </c>
+      <c r="E105">
+        <v>0.10347000000000001</v>
+      </c>
+      <c r="F105">
+        <v>0.74031999999999998</v>
+      </c>
+      <c r="G105">
+        <v>21.8918</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>20.957999999999998</v>
+      </c>
+      <c r="B106">
+        <v>24.925999999999998</v>
+      </c>
+      <c r="C106">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D106">
+        <v>6.9111000000000002</v>
+      </c>
+      <c r="E106">
+        <v>0.10445</v>
+      </c>
+      <c r="F106">
+        <v>0.16556000000000001</v>
+      </c>
+      <c r="G106">
+        <v>21.911100000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>21.158000000000001</v>
+      </c>
+      <c r="B107">
+        <v>24.925999999999998</v>
+      </c>
+      <c r="C107">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D107">
+        <v>6.9261999999999997</v>
+      </c>
+      <c r="E107">
+        <v>0.10521</v>
+      </c>
+      <c r="F107">
+        <v>2.879E-2</v>
+      </c>
+      <c r="G107">
+        <v>21.926200000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>21.356999999999999</v>
+      </c>
+      <c r="B108">
+        <v>24.927</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>6.9466000000000001</v>
+      </c>
+      <c r="E108">
+        <v>0.10623</v>
+      </c>
+      <c r="F108">
+        <v>-1.4999999999999999E-4</v>
+      </c>
+      <c r="G108">
+        <v>21.9466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>21.556999999999999</v>
+      </c>
+      <c r="B109">
+        <v>24.928000000000001</v>
+      </c>
+      <c r="C109">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D109">
+        <v>6.9706999999999999</v>
+      </c>
+      <c r="E109">
+        <v>0.10745</v>
+      </c>
+      <c r="F109">
+        <v>-3.4099999999999998E-3</v>
+      </c>
+      <c r="G109">
+        <v>21.970700000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>21.756</v>
+      </c>
+      <c r="B110">
+        <v>24.928000000000001</v>
+      </c>
+      <c r="C110">
+        <v>1E-3</v>
+      </c>
+      <c r="D110">
+        <v>6.9909999999999997</v>
+      </c>
+      <c r="E110">
+        <v>0.10847</v>
+      </c>
+      <c r="F110">
+        <v>1.06E-3</v>
+      </c>
+      <c r="G110">
+        <v>21.991</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>21.956</v>
+      </c>
+      <c r="B111">
+        <v>24.928999999999998</v>
+      </c>
+      <c r="C111">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D111">
+        <v>7.0115999999999996</v>
+      </c>
+      <c r="E111">
+        <v>0.10951</v>
+      </c>
+      <c r="F111">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="G111">
+        <v>22.011600000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>22.155999999999999</v>
+      </c>
+      <c r="B112">
+        <v>24.928999999999998</v>
+      </c>
+      <c r="C112">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D112">
+        <v>7.032</v>
+      </c>
+      <c r="E112">
+        <v>0.11054</v>
+      </c>
+      <c r="F112">
+        <v>8.7100000000000007E-3</v>
+      </c>
+      <c r="G112">
+        <v>22.032</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>22.355</v>
+      </c>
+      <c r="B113">
+        <v>24.93</v>
+      </c>
+      <c r="C113">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D113">
+        <v>7.0468000000000002</v>
+      </c>
+      <c r="E113">
+        <v>0.11128</v>
+      </c>
+      <c r="F113">
+        <v>1.5259999999999999E-2</v>
+      </c>
+      <c r="G113">
+        <v>22.046800000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>22.555</v>
+      </c>
+      <c r="B114">
+        <v>24.93</v>
+      </c>
+      <c r="C114">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D114">
+        <v>7.0709</v>
+      </c>
+      <c r="E114">
+        <v>0.1125</v>
+      </c>
+      <c r="F114">
+        <v>2.1250000000000002E-2</v>
+      </c>
+      <c r="G114">
+        <v>22.070900000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>22.754000000000001</v>
+      </c>
+      <c r="B115">
+        <v>24.931999999999999</v>
+      </c>
+      <c r="C115">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D115">
+        <v>7.0896999999999997</v>
+      </c>
+      <c r="E115">
+        <v>0.11345</v>
+      </c>
+      <c r="F115">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G115">
+        <v>22.089700000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>22.954000000000001</v>
+      </c>
+      <c r="B116">
+        <v>24.931999999999999</v>
+      </c>
+      <c r="C116">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D116">
+        <v>7.1083999999999996</v>
+      </c>
+      <c r="E116">
+        <v>0.11439000000000001</v>
+      </c>
+      <c r="F116">
+        <v>3.5369999999999999E-2</v>
+      </c>
+      <c r="G116">
+        <v>22.1084</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>23.154</v>
+      </c>
+      <c r="B117">
+        <v>24.933</v>
+      </c>
+      <c r="C117">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D117">
+        <v>7.1275000000000004</v>
+      </c>
+      <c r="E117">
+        <v>0.11534999999999999</v>
+      </c>
+      <c r="F117">
+        <v>4.1779999999999998E-2</v>
+      </c>
+      <c r="G117">
+        <v>22.127500000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>23.353000000000002</v>
+      </c>
+      <c r="B118">
+        <v>24.933</v>
+      </c>
+      <c r="C118">
+        <v>0.04</v>
+      </c>
+      <c r="D118">
+        <v>7.1426999999999996</v>
+      </c>
+      <c r="E118">
+        <v>0.11612</v>
+      </c>
+      <c r="F118">
+        <v>3.959E-2</v>
+      </c>
+      <c r="G118">
+        <v>22.142700000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>23.553000000000001</v>
+      </c>
+      <c r="B119">
+        <v>24.934000000000001</v>
+      </c>
+      <c r="C119">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D119">
+        <v>7.1624999999999996</v>
+      </c>
+      <c r="E119">
+        <v>0.11712</v>
+      </c>
+      <c r="F119">
+        <v>3.1570000000000001E-2</v>
+      </c>
+      <c r="G119">
+        <v>22.162500000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>23.751999999999999</v>
+      </c>
+      <c r="B120">
+        <v>24.934999999999999</v>
+      </c>
+      <c r="C120">
+        <v>0.03</v>
+      </c>
+      <c r="D120">
+        <v>7.1863999999999999</v>
+      </c>
+      <c r="E120">
+        <v>0.11831999999999999</v>
+      </c>
+      <c r="F120">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G120">
+        <v>22.186399999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>23.952000000000002</v>
+      </c>
+      <c r="B121">
+        <v>24.934999999999999</v>
+      </c>
+      <c r="C121">
+        <v>0.03</v>
+      </c>
+      <c r="D121">
+        <v>7.2045000000000003</v>
+      </c>
+      <c r="E121">
+        <v>0.11923</v>
+      </c>
+      <c r="F121">
+        <v>2.9870000000000001E-2</v>
+      </c>
+      <c r="G121">
+        <v>22.204499999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>24.152000000000001</v>
+      </c>
+      <c r="B122">
+        <v>24.934999999999999</v>
+      </c>
+      <c r="C122">
+        <v>0.03</v>
+      </c>
+      <c r="D122">
+        <v>7.2228000000000003</v>
+      </c>
+      <c r="E122">
+        <v>0.12015000000000001</v>
+      </c>
+      <c r="F122">
+        <v>2.9680000000000002E-2</v>
+      </c>
+      <c r="G122">
+        <v>22.222799999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>24.350999999999999</v>
+      </c>
+      <c r="B123">
+        <v>24.936</v>
+      </c>
+      <c r="C123">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D123">
+        <v>7.2416999999999998</v>
+      </c>
+      <c r="E123">
+        <v>0.12111</v>
+      </c>
+      <c r="F123">
+        <v>2.691E-2</v>
+      </c>
+      <c r="G123">
+        <v>22.241700000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>24.550999999999998</v>
+      </c>
+      <c r="B124">
+        <v>24.937000000000001</v>
+      </c>
+      <c r="C124">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D124">
+        <v>7.2556000000000003</v>
+      </c>
+      <c r="E124">
+        <v>0.12181</v>
+      </c>
+      <c r="F124">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="G124">
+        <v>22.255600000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>24.75</v>
+      </c>
+      <c r="B125">
+        <v>24.937999999999999</v>
+      </c>
+      <c r="C125">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D125">
+        <v>7.2801</v>
+      </c>
+      <c r="E125">
+        <v>0.12304</v>
+      </c>
+      <c r="F125">
+        <v>2.2929999999999999E-2</v>
+      </c>
+      <c r="G125">
+        <v>22.280100000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>24.95</v>
+      </c>
+      <c r="B126">
+        <v>24.939</v>
+      </c>
+      <c r="C126">
+        <v>0.02</v>
+      </c>
+      <c r="D126">
+        <v>7.3003</v>
+      </c>
+      <c r="E126">
+        <v>0.12406</v>
+      </c>
+      <c r="F126">
+        <v>2.0449999999999999E-2</v>
+      </c>
+      <c r="G126">
+        <v>22.3003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>25.15</v>
+      </c>
+      <c r="B127">
+        <v>24.939</v>
+      </c>
+      <c r="C127">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D127">
+        <v>7.3202999999999996</v>
+      </c>
+      <c r="E127">
+        <v>0.12506999999999999</v>
+      </c>
+      <c r="F127">
+        <v>1.9009999999999999E-2</v>
+      </c>
+      <c r="G127">
+        <v>22.3203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>25.349</v>
+      </c>
+      <c r="B128">
+        <v>24.939</v>
+      </c>
+      <c r="C128">
+        <v>0.02</v>
+      </c>
+      <c r="D128">
+        <v>7.3402000000000003</v>
+      </c>
+      <c r="E128">
+        <v>0.12606999999999999</v>
+      </c>
+      <c r="F128">
+        <v>2.0070000000000001E-2</v>
+      </c>
+      <c r="G128">
+        <v>22.340199999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>25.548999999999999</v>
+      </c>
+      <c r="B129">
+        <v>24.94</v>
+      </c>
+      <c r="C129">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D129">
+        <v>7.3545999999999996</v>
+      </c>
+      <c r="E129">
+        <v>0.1268</v>
+      </c>
+      <c r="F129">
+        <v>1.933E-2</v>
+      </c>
+      <c r="G129">
+        <v>22.354600000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>25.748000000000001</v>
+      </c>
+      <c r="B130">
+        <v>24.940999999999999</v>
+      </c>
+      <c r="C130">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D130">
+        <v>7.3789999999999996</v>
+      </c>
+      <c r="E130">
+        <v>0.12803</v>
+      </c>
+      <c r="F130">
+        <v>2.0889999999999999E-2</v>
+      </c>
+      <c r="G130">
+        <v>22.379000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>25.948</v>
+      </c>
+      <c r="B131">
+        <v>24.940999999999999</v>
+      </c>
+      <c r="C131">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D131">
+        <v>7.3989000000000003</v>
+      </c>
+      <c r="E131">
+        <v>0.12903000000000001</v>
+      </c>
+      <c r="F131">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="G131">
+        <v>22.398900000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>26.148</v>
+      </c>
+      <c r="B132">
+        <v>24.942</v>
+      </c>
+      <c r="C132">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D132">
+        <v>7.4196</v>
+      </c>
+      <c r="E132">
+        <v>0.13006999999999999</v>
+      </c>
+      <c r="F132">
+        <v>2.4660000000000001E-2</v>
+      </c>
+      <c r="G132">
+        <v>22.419599999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>26.347000000000001</v>
+      </c>
+      <c r="B133">
+        <v>24.943000000000001</v>
+      </c>
+      <c r="C133">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D133">
+        <v>7.4409999999999998</v>
+      </c>
+      <c r="E133">
+        <v>0.13114999999999999</v>
+      </c>
+      <c r="F133">
+        <v>2.656E-2</v>
+      </c>
+      <c r="G133">
+        <v>22.440999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>26.547000000000001</v>
+      </c>
+      <c r="B134">
+        <v>24.943000000000001</v>
+      </c>
+      <c r="C134">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D134">
+        <v>7.4619999999999997</v>
+      </c>
+      <c r="E134">
+        <v>0.13220999999999999</v>
+      </c>
+      <c r="F134">
+        <v>2.332E-2</v>
+      </c>
+      <c r="G134">
+        <v>22.462</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>26.745999999999999</v>
+      </c>
+      <c r="B135">
+        <v>24.943000000000001</v>
+      </c>
+      <c r="C135">
+        <v>0.02</v>
+      </c>
+      <c r="D135">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="E135">
+        <v>0.13299</v>
+      </c>
+      <c r="F135">
+        <v>2.0080000000000001E-2</v>
+      </c>
+      <c r="G135">
+        <v>22.477399999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>26.946000000000002</v>
+      </c>
+      <c r="B136">
+        <v>24.943999999999999</v>
+      </c>
+      <c r="C136">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D136">
+        <v>7.5023</v>
+      </c>
+      <c r="E136">
+        <v>0.13425000000000001</v>
+      </c>
+      <c r="F136">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="G136">
+        <v>22.502300000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>27.146000000000001</v>
+      </c>
+      <c r="B137">
+        <v>24.945</v>
+      </c>
+      <c r="C137">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D137">
+        <v>7.5233999999999996</v>
+      </c>
+      <c r="E137">
+        <v>0.13531000000000001</v>
+      </c>
+      <c r="F137">
+        <v>1.932E-2</v>
+      </c>
+      <c r="G137">
+        <v>22.523399999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>27.344999999999999</v>
+      </c>
+      <c r="B138">
+        <v>24.946000000000002</v>
+      </c>
+      <c r="C138">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D138">
+        <v>7.5441000000000003</v>
+      </c>
+      <c r="E138">
+        <v>0.13635</v>
+      </c>
+      <c r="F138">
+        <v>1.9380000000000001E-2</v>
+      </c>
+      <c r="G138">
+        <v>22.5441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>27.545000000000002</v>
+      </c>
+      <c r="B139">
+        <v>24.946000000000002</v>
+      </c>
+      <c r="C139">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D139">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="E139">
+        <v>0.13735</v>
+      </c>
+      <c r="F139">
+        <v>1.6709999999999999E-2</v>
+      </c>
+      <c r="G139">
+        <v>22.564</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>27.744</v>
+      </c>
+      <c r="B140">
+        <v>24.946000000000002</v>
+      </c>
+      <c r="C140">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D140">
+        <v>7.5797999999999996</v>
+      </c>
+      <c r="E140">
+        <v>0.13815</v>
+      </c>
+      <c r="F140">
+        <v>1.5559999999999999E-2</v>
+      </c>
+      <c r="G140">
+        <v>22.579799999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>27.943999999999999</v>
+      </c>
+      <c r="B141">
+        <v>24.946999999999999</v>
+      </c>
+      <c r="C141">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D141">
+        <v>7.6069000000000004</v>
+      </c>
+      <c r="E141">
+        <v>0.13951</v>
+      </c>
+      <c r="F141">
+        <v>1.525E-2</v>
+      </c>
+      <c r="G141">
+        <v>22.6069</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>28.143999999999998</v>
+      </c>
+      <c r="B142">
+        <v>24.948</v>
+      </c>
+      <c r="C142">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D142">
+        <v>7.6283000000000003</v>
+      </c>
+      <c r="E142">
+        <v>0.1406</v>
+      </c>
+      <c r="F142">
+        <v>1.7180000000000001E-2</v>
+      </c>
+      <c r="G142">
+        <v>22.628299999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>28.343</v>
+      </c>
+      <c r="B143">
+        <v>24.948</v>
+      </c>
+      <c r="C143">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D143">
+        <v>7.6490999999999998</v>
+      </c>
+      <c r="E143">
+        <v>0.14163999999999999</v>
+      </c>
+      <c r="F143">
+        <v>1.4970000000000001E-2</v>
+      </c>
+      <c r="G143">
+        <v>22.649100000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>28.542999999999999</v>
+      </c>
+      <c r="B144">
+        <v>24.948</v>
+      </c>
+      <c r="C144">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D144">
+        <v>7.6646000000000001</v>
+      </c>
+      <c r="E144">
+        <v>0.14241999999999999</v>
+      </c>
+      <c r="F144">
+        <v>1.44E-2</v>
+      </c>
+      <c r="G144">
+        <v>22.6646</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>28.742000000000001</v>
+      </c>
+      <c r="B145">
+        <v>24.949000000000002</v>
+      </c>
+      <c r="C145">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D145">
+        <v>7.6845999999999997</v>
+      </c>
+      <c r="E145">
+        <v>0.14343</v>
+      </c>
+      <c r="F145">
+        <v>1.4189999999999999E-2</v>
+      </c>
+      <c r="G145">
+        <v>22.6846</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>28.942</v>
+      </c>
+      <c r="B146">
+        <v>24.95</v>
+      </c>
+      <c r="C146">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D146">
+        <v>7.7092999999999998</v>
+      </c>
+      <c r="E146">
+        <v>0.14468</v>
+      </c>
+      <c r="F146">
+        <v>1.627E-2</v>
+      </c>
+      <c r="G146">
+        <v>22.709299999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>29.141999999999999</v>
+      </c>
+      <c r="B147">
+        <v>24.95</v>
+      </c>
+      <c r="C147">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D147">
+        <v>7.7295999999999996</v>
+      </c>
+      <c r="E147">
+        <v>0.1457</v>
+      </c>
+      <c r="F147">
+        <v>1.7729999999999999E-2</v>
+      </c>
+      <c r="G147">
+        <v>22.729600000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>29.341000000000001</v>
+      </c>
+      <c r="B148">
+        <v>24.951000000000001</v>
+      </c>
+      <c r="C148">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D148">
+        <v>7.7506000000000004</v>
+      </c>
+      <c r="E148">
+        <v>0.14676</v>
+      </c>
+      <c r="F148">
+        <v>1.9089999999999999E-2</v>
+      </c>
+      <c r="G148">
+        <v>22.750599999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>29.541</v>
+      </c>
+      <c r="B149">
+        <v>24.951000000000001</v>
+      </c>
+      <c r="C149">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D149">
+        <v>7.7713000000000001</v>
+      </c>
+      <c r="E149">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="F149">
+        <v>2.051E-2</v>
+      </c>
+      <c r="G149">
+        <v>22.7713</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>29.74</v>
+      </c>
+      <c r="B150">
+        <v>24.952000000000002</v>
+      </c>
+      <c r="C150">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D150">
+        <v>7.7862999999999998</v>
+      </c>
+      <c r="E150">
+        <v>0.14856</v>
+      </c>
+      <c r="F150">
+        <v>2.3390000000000001E-2</v>
+      </c>
+      <c r="G150">
+        <v>22.786300000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>29.94</v>
+      </c>
+      <c r="B151">
+        <v>24.952000000000002</v>
+      </c>
+      <c r="C151">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D151">
+        <v>7.8056000000000001</v>
+      </c>
+      <c r="E151">
+        <v>0.14953</v>
+      </c>
+      <c r="F151">
+        <v>2.46E-2</v>
+      </c>
+      <c r="G151">
+        <v>22.805599999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>30.14</v>
+      </c>
+      <c r="B152">
+        <v>24.952999999999999</v>
+      </c>
+      <c r="C152">
+        <v>0.03</v>
+      </c>
+      <c r="D152">
+        <v>7.8295000000000003</v>
+      </c>
+      <c r="E152">
+        <v>0.15074000000000001</v>
+      </c>
+      <c r="F152">
+        <v>2.9860000000000001E-2</v>
+      </c>
+      <c r="G152">
+        <v>22.829499999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>30.338999999999999</v>
+      </c>
+      <c r="B153">
+        <v>24.954000000000001</v>
+      </c>
+      <c r="C153">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D153">
+        <v>7.8494000000000002</v>
+      </c>
+      <c r="E153">
+        <v>0.15174000000000001</v>
+      </c>
+      <c r="F153">
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="G153">
+        <v>22.849399999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>30.539000000000001</v>
+      </c>
+      <c r="B154">
+        <v>24.954000000000001</v>
+      </c>
+      <c r="C154">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D154">
+        <v>7.8685999999999998</v>
+      </c>
+      <c r="E154">
+        <v>0.15271000000000001</v>
+      </c>
+      <c r="F154">
+        <v>1.8380000000000001E-2</v>
+      </c>
+      <c r="G154">
+        <v>22.868600000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>30.738</v>
+      </c>
+      <c r="B155">
+        <v>24.954999999999998</v>
+      </c>
+      <c r="C155">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D155">
+        <v>7.8887999999999998</v>
+      </c>
+      <c r="E155">
+        <v>0.15372</v>
+      </c>
+      <c r="F155">
+        <v>1.367E-2</v>
+      </c>
+      <c r="G155">
+        <v>22.8888</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>30.937999999999999</v>
+      </c>
+      <c r="B156">
+        <v>24.954999999999998</v>
+      </c>
+      <c r="C156">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D156">
+        <v>7.9043000000000001</v>
+      </c>
+      <c r="E156">
+        <v>0.15451000000000001</v>
+      </c>
+      <c r="F156">
+        <v>1.29E-2</v>
+      </c>
+      <c r="G156">
+        <v>22.904299999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>31.138000000000002</v>
+      </c>
+      <c r="B157">
+        <v>24.956</v>
+      </c>
+      <c r="C157">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D157">
+        <v>7.9298000000000002</v>
+      </c>
+      <c r="E157">
+        <v>0.15579000000000001</v>
+      </c>
+      <c r="F157">
+        <v>1.417E-2</v>
+      </c>
+      <c r="G157">
+        <v>22.9298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>31.337</v>
+      </c>
+      <c r="B158">
+        <v>24.956</v>
+      </c>
+      <c r="C158">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D158">
+        <v>7.9497999999999998</v>
+      </c>
+      <c r="E158">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="F158">
+        <v>1.66E-2</v>
+      </c>
+      <c r="G158">
+        <v>22.9498</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>31.536999999999999</v>
+      </c>
+      <c r="B159">
+        <v>24.957000000000001</v>
+      </c>
+      <c r="C159">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D159">
+        <v>7.9692999999999996</v>
+      </c>
+      <c r="E159">
+        <v>0.15778</v>
+      </c>
+      <c r="F159">
+        <v>1.779E-2</v>
+      </c>
+      <c r="G159">
+        <v>22.9693</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>31.736000000000001</v>
+      </c>
+      <c r="B160">
+        <v>24.957000000000001</v>
+      </c>
+      <c r="C160">
+        <v>0.02</v>
+      </c>
+      <c r="D160">
+        <v>7.9842000000000004</v>
+      </c>
+      <c r="E160">
+        <v>0.15853</v>
+      </c>
+      <c r="F160">
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="G160">
+        <v>22.984200000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>31.936</v>
+      </c>
+      <c r="B161">
+        <v>24.957999999999998</v>
+      </c>
+      <c r="C161">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D161">
+        <v>8.0042000000000009</v>
+      </c>
+      <c r="E161">
+        <v>0.15953999999999999</v>
+      </c>
+      <c r="F161">
+        <v>2.2249999999999999E-2</v>
+      </c>
+      <c r="G161">
+        <v>23.004200000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>32.136000000000003</v>
+      </c>
+      <c r="B162">
+        <v>24.959</v>
+      </c>
+      <c r="C162">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D162">
+        <v>8.0298999999999996</v>
+      </c>
+      <c r="E162">
+        <v>0.16084000000000001</v>
+      </c>
+      <c r="F162">
+        <v>2.6349999999999998E-2</v>
+      </c>
+      <c r="G162">
+        <v>23.029900000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>32.335000000000001</v>
+      </c>
+      <c r="B163">
+        <v>24.957999999999998</v>
+      </c>
+      <c r="C163">
+        <v>0.03</v>
+      </c>
+      <c r="D163">
+        <v>8.0509000000000004</v>
+      </c>
+      <c r="E163">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="F163">
+        <v>3.0259999999999999E-2</v>
+      </c>
+      <c r="G163">
+        <v>23.050899999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>32.534999999999997</v>
+      </c>
+      <c r="B164">
+        <v>24.959</v>
+      </c>
+      <c r="C164">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D164">
+        <v>8.0716999999999999</v>
+      </c>
+      <c r="E164">
+        <v>0.16294</v>
+      </c>
+      <c r="F164">
+        <v>3.2419999999999997E-2</v>
+      </c>
+      <c r="G164">
+        <v>23.0717</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>32.734000000000002</v>
+      </c>
+      <c r="B165">
+        <v>24.96</v>
+      </c>
+      <c r="C165">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D165">
+        <v>8.0917999999999992</v>
+      </c>
+      <c r="E165">
+        <v>0.16395999999999999</v>
+      </c>
+      <c r="F165">
+        <v>3.3110000000000001E-2</v>
+      </c>
+      <c r="G165">
+        <v>23.091799999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>32.933999999999997</v>
+      </c>
+      <c r="B166">
+        <v>24.96</v>
+      </c>
+      <c r="C166">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D166">
+        <v>8.1064000000000007</v>
+      </c>
+      <c r="E166">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="F166">
+        <v>3.2770000000000001E-2</v>
+      </c>
+      <c r="G166">
+        <v>23.106400000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>33.134</v>
+      </c>
+      <c r="B167">
+        <v>24.96</v>
+      </c>
+      <c r="C167">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D167">
+        <v>8.1268999999999991</v>
+      </c>
+      <c r="E167">
+        <v>0.16572999999999999</v>
+      </c>
+      <c r="F167">
+        <v>3.4320000000000003E-2</v>
+      </c>
+      <c r="G167">
+        <v>23.126899999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>33.332999999999998</v>
+      </c>
+      <c r="B168">
+        <v>24.960999999999999</v>
+      </c>
+      <c r="C168">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D168">
+        <v>8.1525999999999996</v>
+      </c>
+      <c r="E168">
+        <v>0.16702</v>
+      </c>
+      <c r="F168">
+        <v>3.5830000000000001E-2</v>
+      </c>
+      <c r="G168">
+        <v>23.1526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>33.533000000000001</v>
+      </c>
+      <c r="B169">
+        <v>24.962</v>
+      </c>
+      <c r="C169">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D169">
+        <v>8.1723999999999997</v>
+      </c>
+      <c r="E169">
+        <v>0.16802</v>
+      </c>
+      <c r="F169">
+        <v>3.6339999999999997E-2</v>
+      </c>
+      <c r="G169">
+        <v>23.1724</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>33.731999999999999</v>
+      </c>
+      <c r="B170">
+        <v>24.962</v>
+      </c>
+      <c r="C170">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D170">
+        <v>8.1931999999999992</v>
+      </c>
+      <c r="E170">
+        <v>0.16907</v>
+      </c>
+      <c r="F170">
+        <v>3.2640000000000002E-2</v>
+      </c>
+      <c r="G170">
+        <v>23.193200000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>33.932000000000002</v>
+      </c>
+      <c r="B171">
+        <v>24.962</v>
+      </c>
+      <c r="C171">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="D171">
+        <v>8.2088999999999999</v>
+      </c>
+      <c r="E171">
+        <v>0.16986000000000001</v>
+      </c>
+      <c r="F171">
+        <v>-3.3779999999999998E-2</v>
+      </c>
+      <c r="G171">
+        <v>23.2089</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>34.131999999999998</v>
+      </c>
+      <c r="B172">
+        <v>24.963000000000001</v>
+      </c>
+      <c r="C172">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="D172">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="E172">
+        <v>0.17091000000000001</v>
+      </c>
+      <c r="F172">
+        <v>-5.1830000000000001E-2</v>
+      </c>
+      <c r="G172">
+        <v>23.229600000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>34.331000000000003</v>
+      </c>
+      <c r="B173">
+        <v>24.963000000000001</v>
+      </c>
+      <c r="C173">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D173">
+        <v>8.2550000000000008</v>
+      </c>
+      <c r="E173">
+        <v>0.17218</v>
+      </c>
+      <c r="F173">
+        <v>-5.5570000000000001E-2</v>
+      </c>
+      <c r="G173">
+        <v>23.254999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>34.530999999999999</v>
+      </c>
+      <c r="B174">
+        <v>24.963999999999999</v>
+      </c>
+      <c r="C174">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D174">
+        <v>8.2745999999999995</v>
+      </c>
+      <c r="E174">
+        <v>0.17316999999999999</v>
+      </c>
+      <c r="F174">
+        <v>-5.6149999999999999E-2</v>
+      </c>
+      <c r="G174">
+        <v>23.2746</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="B175">
+        <v>24.963999999999999</v>
+      </c>
+      <c r="C175">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D175">
+        <v>8.2939000000000007</v>
+      </c>
+      <c r="E175">
+        <v>0.17413999999999999</v>
+      </c>
+      <c r="F175">
+        <v>-5.5570000000000001E-2</v>
+      </c>
+      <c r="G175">
+        <v>23.293900000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>34.93</v>
+      </c>
+      <c r="B176">
+        <v>24.965</v>
+      </c>
+      <c r="C176">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D176">
+        <v>8.3132000000000001</v>
+      </c>
+      <c r="E176">
+        <v>0.17512</v>
+      </c>
+      <c r="F176">
+        <v>-5.5829999999999998E-2</v>
+      </c>
+      <c r="G176">
+        <v>23.313199999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="B177">
+        <v>24.965</v>
+      </c>
+      <c r="C177">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D177">
+        <v>8.3278999999999996</v>
+      </c>
+      <c r="E177">
+        <v>0.17585999999999999</v>
+      </c>
+      <c r="F177">
+        <v>-5.5469999999999998E-2</v>
+      </c>
+      <c r="G177">
+        <v>23.3279</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>35.329000000000001</v>
+      </c>
+      <c r="B178">
+        <v>24.965</v>
+      </c>
+      <c r="C178">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D178">
+        <v>8.3533000000000008</v>
+      </c>
+      <c r="E178">
+        <v>0.17713999999999999</v>
+      </c>
+      <c r="F178">
+        <v>-5.5219999999999998E-2</v>
+      </c>
+      <c r="G178">
+        <v>23.353300000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>35.529000000000003</v>
+      </c>
+      <c r="B179">
+        <v>24.966000000000001</v>
+      </c>
+      <c r="C179">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D179">
+        <v>8.3729999999999993</v>
+      </c>
+      <c r="E179">
+        <v>0.17813000000000001</v>
+      </c>
+      <c r="F179">
+        <v>-5.6059999999999999E-2</v>
+      </c>
+      <c r="G179">
+        <v>23.373000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>35.728000000000002</v>
+      </c>
+      <c r="B180">
+        <v>24.966000000000001</v>
+      </c>
+      <c r="C180">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D180">
+        <v>8.3922000000000008</v>
+      </c>
+      <c r="E180">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="F180">
+        <v>-5.6860000000000001E-2</v>
+      </c>
+      <c r="G180">
+        <v>23.392199999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>35.927999999999997</v>
+      </c>
+      <c r="B181">
+        <v>24.966999999999999</v>
+      </c>
+      <c r="C181">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D181">
+        <v>8.4105000000000008</v>
+      </c>
+      <c r="E181">
+        <v>0.18002000000000001</v>
+      </c>
+      <c r="F181">
+        <v>-5.5730000000000002E-2</v>
+      </c>
+      <c r="G181">
+        <v>23.410499999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>36.128</v>
+      </c>
+      <c r="B182">
+        <v>24.966999999999999</v>
+      </c>
+      <c r="C182">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D182">
+        <v>8.4247999999999994</v>
+      </c>
+      <c r="E182">
+        <v>0.18074000000000001</v>
+      </c>
+      <c r="F182">
+        <v>-5.6950000000000001E-2</v>
+      </c>
+      <c r="G182">
+        <v>23.424800000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>36.326999999999998</v>
+      </c>
+      <c r="B183">
+        <v>24.966999999999999</v>
+      </c>
+      <c r="C183">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D183">
+        <v>8.4482999999999997</v>
+      </c>
+      <c r="E183">
+        <v>0.18193000000000001</v>
+      </c>
+      <c r="F183">
+        <v>-5.6640000000000003E-2</v>
+      </c>
+      <c r="G183">
+        <v>23.4483</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>36.527000000000001</v>
+      </c>
+      <c r="B184">
+        <v>24.968</v>
+      </c>
+      <c r="C184">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D184">
+        <v>8.4672000000000001</v>
+      </c>
+      <c r="E184">
+        <v>0.18287999999999999</v>
+      </c>
+      <c r="F184">
+        <v>-5.7279999999999998E-2</v>
+      </c>
+      <c r="G184">
+        <v>23.467199999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>36.725999999999999</v>
+      </c>
+      <c r="B185">
+        <v>24.968</v>
+      </c>
+      <c r="C185">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D185">
+        <v>8.4871999999999996</v>
+      </c>
+      <c r="E185">
+        <v>0.18389</v>
+      </c>
+      <c r="F185">
+        <v>-5.6099999999999997E-2</v>
+      </c>
+      <c r="G185">
+        <v>23.487200000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>36.926000000000002</v>
+      </c>
+      <c r="B186">
+        <v>24.968</v>
+      </c>
+      <c r="C186">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D186">
+        <v>8.5075000000000003</v>
+      </c>
+      <c r="E186">
+        <v>0.18490999999999999</v>
+      </c>
+      <c r="F186">
+        <v>-5.6439999999999997E-2</v>
+      </c>
+      <c r="G186">
+        <v>23.5075</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>37.125999999999998</v>
+      </c>
+      <c r="B187">
+        <v>24.969000000000001</v>
+      </c>
+      <c r="C187">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D187">
+        <v>8.5274999999999999</v>
+      </c>
+      <c r="E187">
+        <v>0.18592</v>
+      </c>
+      <c r="F187">
+        <v>-5.7099999999999998E-2</v>
+      </c>
+      <c r="G187">
+        <v>23.5275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>37.325000000000003</v>
+      </c>
+      <c r="B188">
+        <v>24.969000000000001</v>
+      </c>
+      <c r="C188">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D188">
+        <v>8.5422999999999991</v>
+      </c>
+      <c r="E188">
+        <v>0.18667</v>
+      </c>
+      <c r="F188">
+        <v>-5.6989999999999999E-2</v>
+      </c>
+      <c r="G188">
+        <v>23.542300000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>37.524999999999999</v>
+      </c>
+      <c r="B189">
+        <v>24.97</v>
+      </c>
+      <c r="C189">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D189">
+        <v>8.5667000000000009</v>
+      </c>
+      <c r="E189">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="F189">
+        <v>-5.6980000000000003E-2</v>
+      </c>
+      <c r="G189">
+        <v>23.566700000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>37.723999999999997</v>
+      </c>
+      <c r="B190">
+        <v>24.97</v>
+      </c>
+      <c r="C190">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D190">
+        <v>8.5864999999999991</v>
+      </c>
+      <c r="E190">
+        <v>0.18890000000000001</v>
+      </c>
+      <c r="F190">
+        <v>-5.7729999999999997E-2</v>
+      </c>
+      <c r="G190">
+        <v>23.586500000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>37.923999999999999</v>
+      </c>
+      <c r="B191">
+        <v>24.97</v>
+      </c>
+      <c r="C191">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D191">
+        <v>8.6065000000000005</v>
+      </c>
+      <c r="E191">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="F191">
+        <v>-5.7329999999999999E-2</v>
+      </c>
+      <c r="G191">
+        <v>23.6065</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>38.124000000000002</v>
+      </c>
+      <c r="B192">
+        <v>24.971</v>
+      </c>
+      <c r="C192">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D192">
+        <v>8.6273999999999997</v>
+      </c>
+      <c r="E192">
+        <v>0.19095999999999999</v>
+      </c>
+      <c r="F192">
+        <v>-5.833E-2</v>
+      </c>
+      <c r="G192">
+        <v>23.627400000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>38.323</v>
+      </c>
+      <c r="B193">
+        <v>24.971</v>
+      </c>
+      <c r="C193">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D193">
+        <v>8.6434999999999995</v>
+      </c>
+      <c r="E193">
+        <v>0.19177</v>
+      </c>
+      <c r="F193">
+        <v>-5.7099999999999998E-2</v>
+      </c>
+      <c r="G193">
+        <v>23.6435</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>38.523000000000003</v>
+      </c>
+      <c r="B194">
+        <v>24.971</v>
+      </c>
+      <c r="C194">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D194">
+        <v>8.6697000000000006</v>
+      </c>
+      <c r="E194">
+        <v>0.19309000000000001</v>
+      </c>
+      <c r="F194">
+        <v>-5.7450000000000001E-2</v>
+      </c>
+      <c r="G194">
+        <v>23.669699999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>38.722000000000001</v>
+      </c>
+      <c r="B195">
+        <v>24.972000000000001</v>
+      </c>
+      <c r="C195">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D195">
+        <v>8.6897000000000002</v>
+      </c>
+      <c r="E195">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="F195">
+        <v>-5.8500000000000003E-2</v>
+      </c>
+      <c r="G195">
+        <v>23.689699999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>38.921999999999997</v>
+      </c>
+      <c r="B196">
+        <v>24.972000000000001</v>
+      </c>
+      <c r="C196">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D196">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E196">
+        <v>0.19511999999999999</v>
+      </c>
+      <c r="F196">
+        <v>-5.6550000000000003E-2</v>
+      </c>
+      <c r="G196">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>39.122</v>
+      </c>
+      <c r="B197">
+        <v>24.972000000000001</v>
+      </c>
+      <c r="C197">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D197">
+        <v>8.7312999999999992</v>
+      </c>
+      <c r="E197">
+        <v>0.19619</v>
+      </c>
+      <c r="F197">
+        <v>-5.6849999999999998E-2</v>
+      </c>
+      <c r="G197">
+        <v>23.731300000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>39.320999999999998</v>
+      </c>
+      <c r="B198">
+        <v>24.972999999999999</v>
+      </c>
+      <c r="C198">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D198">
+        <v>8.7463999999999995</v>
+      </c>
+      <c r="E198">
+        <v>0.19694999999999999</v>
+      </c>
+      <c r="F198">
+        <v>-5.7529999999999998E-2</v>
+      </c>
+      <c r="G198">
+        <v>23.746400000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>39.521000000000001</v>
+      </c>
+      <c r="B199">
+        <v>24.972999999999999</v>
+      </c>
+      <c r="C199">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D199">
+        <v>8.7713999999999999</v>
+      </c>
+      <c r="E199">
+        <v>0.19821</v>
+      </c>
+      <c r="F199">
+        <v>-5.6770000000000001E-2</v>
+      </c>
+      <c r="G199">
+        <v>23.7714</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>39.72</v>
+      </c>
+      <c r="B200">
+        <v>24.972999999999999</v>
+      </c>
+      <c r="C200">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D200">
+        <v>8.7925000000000004</v>
+      </c>
+      <c r="E200">
+        <v>0.19928000000000001</v>
+      </c>
+      <c r="F200">
+        <v>-5.7299999999999997E-2</v>
+      </c>
+      <c r="G200">
+        <v>23.7925</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>39.92</v>
+      </c>
+      <c r="B201">
+        <v>24.972999999999999</v>
+      </c>
+      <c r="C201">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D201">
+        <v>8.8139000000000003</v>
+      </c>
+      <c r="E201">
+        <v>0.20036000000000001</v>
+      </c>
+      <c r="F201">
+        <v>-5.774E-2</v>
+      </c>
+      <c r="G201">
+        <v>23.8139</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="B202">
+        <v>24.974</v>
+      </c>
+      <c r="C202">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D202">
+        <v>8.8350000000000009</v>
+      </c>
+      <c r="E202">
+        <v>0.20141999999999999</v>
+      </c>
+      <c r="F202">
+        <v>-5.8160000000000003E-2</v>
+      </c>
+      <c r="G202">
+        <v>23.835000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>40.319000000000003</v>
+      </c>
+      <c r="B203">
+        <v>24.975000000000001</v>
+      </c>
+      <c r="C203">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D203">
+        <v>8.8554999999999993</v>
+      </c>
+      <c r="E203">
+        <v>0.20244999999999999</v>
+      </c>
+      <c r="F203">
+        <v>-5.8569999999999997E-2</v>
+      </c>
+      <c r="G203">
+        <v>23.855499999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>40.518999999999998</v>
+      </c>
+      <c r="B204">
+        <v>24.975000000000001</v>
+      </c>
+      <c r="C204">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="D204">
+        <v>8.8706999999999994</v>
+      </c>
+      <c r="E204">
+        <v>0.20322000000000001</v>
+      </c>
+      <c r="F204">
+        <v>-5.9310000000000002E-2</v>
+      </c>
+      <c r="G204">
+        <v>23.870699999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>40.718000000000004</v>
+      </c>
+      <c r="B205">
+        <v>24.975000000000001</v>
+      </c>
+      <c r="C205">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D205">
+        <v>8.8952000000000009</v>
+      </c>
+      <c r="E205">
+        <v>0.20444999999999999</v>
+      </c>
+      <c r="F205">
+        <v>-5.7669999999999999E-2</v>
+      </c>
+      <c r="G205">
+        <v>23.895199999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>40.917999999999999</v>
+      </c>
+      <c r="B206">
+        <v>24.975000000000001</v>
+      </c>
+      <c r="C206">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D206">
+        <v>8.9147999999999996</v>
+      </c>
+      <c r="E206">
+        <v>0.20544000000000001</v>
+      </c>
+      <c r="F206">
+        <v>-5.6739999999999999E-2</v>
+      </c>
+      <c r="G206">
+        <v>23.9148</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>41.118000000000002</v>
+      </c>
+      <c r="B207">
+        <v>24.975999999999999</v>
+      </c>
+      <c r="C207">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D207">
+        <v>8.9349000000000007</v>
+      </c>
+      <c r="E207">
+        <v>0.20644999999999999</v>
+      </c>
+      <c r="F207">
+        <v>-5.8250000000000003E-2</v>
+      </c>
+      <c r="G207">
+        <v>23.934899999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>41.317</v>
+      </c>
+      <c r="B208">
+        <v>24.975999999999999</v>
+      </c>
+      <c r="C208">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D208">
+        <v>8.9557000000000002</v>
+      </c>
+      <c r="E208">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="F208">
+        <v>-5.7450000000000001E-2</v>
+      </c>
+      <c r="G208">
+        <v>23.9557</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>41.517000000000003</v>
+      </c>
+      <c r="B209">
+        <v>24.975999999999999</v>
+      </c>
+      <c r="C209">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D209">
+        <v>8.9757999999999996</v>
+      </c>
+      <c r="E209">
+        <v>0.20852000000000001</v>
+      </c>
+      <c r="F209">
+        <v>-5.7759999999999999E-2</v>
+      </c>
+      <c r="G209">
+        <v>23.9758</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>41.716000000000001</v>
+      </c>
+      <c r="B210">
+        <v>24.977</v>
+      </c>
+      <c r="C210">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D210">
+        <v>8.9954000000000001</v>
+      </c>
+      <c r="E210">
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="F210">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="G210">
+        <v>23.9954</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>41.915999999999997</v>
+      </c>
+      <c r="B211">
+        <v>24.977</v>
+      </c>
+      <c r="C211">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D211">
+        <v>9.0140999999999991</v>
+      </c>
+      <c r="E211">
+        <v>0.21045</v>
+      </c>
+      <c r="F211">
+        <v>-5.7029999999999997E-2</v>
+      </c>
+      <c r="G211">
+        <v>24.014099999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>42.116</v>
+      </c>
+      <c r="B212">
+        <v>24.977</v>
+      </c>
+      <c r="C212">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D212">
+        <v>9.0335000000000001</v>
+      </c>
+      <c r="E212">
+        <v>0.21142</v>
+      </c>
+      <c r="F212">
+        <v>-5.7090000000000002E-2</v>
+      </c>
+      <c r="G212">
+        <v>24.0335</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>42.314999999999998</v>
+      </c>
+      <c r="B213">
+        <v>24.977</v>
+      </c>
+      <c r="C213">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D213">
+        <v>9.0526999999999997</v>
+      </c>
+      <c r="E213">
+        <v>0.21239</v>
+      </c>
+      <c r="F213">
+        <v>-5.697E-2</v>
+      </c>
+      <c r="G213">
+        <v>24.052700000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>42.515000000000001</v>
+      </c>
+      <c r="B214">
+        <v>24.978000000000002</v>
+      </c>
+      <c r="C214">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D214">
+        <v>9.0718999999999994</v>
+      </c>
+      <c r="E214">
+        <v>0.21335999999999999</v>
+      </c>
+      <c r="F214">
+        <v>-5.6570000000000002E-2</v>
+      </c>
+      <c r="G214">
+        <v>24.071899999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>42.713999999999999</v>
+      </c>
+      <c r="B215">
+        <v>24.978000000000002</v>
+      </c>
+      <c r="C215">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D215">
+        <v>9.0921000000000003</v>
+      </c>
+      <c r="E215">
+        <v>0.21437999999999999</v>
+      </c>
+      <c r="F215">
+        <v>-5.6059999999999999E-2</v>
+      </c>
+      <c r="G215">
+        <v>24.092099999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>42.914000000000001</v>
+      </c>
+      <c r="B216">
+        <v>24.978999999999999</v>
+      </c>
+      <c r="C216">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D216">
+        <v>9.1126000000000005</v>
+      </c>
+      <c r="E216">
+        <v>0.21540999999999999</v>
+      </c>
+      <c r="F216">
+        <v>-5.5579999999999997E-2</v>
+      </c>
+      <c r="G216">
+        <v>24.1126</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>43.113999999999997</v>
+      </c>
+      <c r="B217">
+        <v>24.978999999999999</v>
+      </c>
+      <c r="C217">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D217">
+        <v>9.1328999999999994</v>
+      </c>
+      <c r="E217">
+        <v>0.21643000000000001</v>
+      </c>
+      <c r="F217">
+        <v>-5.7360000000000001E-2</v>
+      </c>
+      <c r="G217">
+        <v>24.132899999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>43.313000000000002</v>
+      </c>
+      <c r="B218">
+        <v>24.978999999999999</v>
+      </c>
+      <c r="C218">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D218">
+        <v>9.1526999999999994</v>
+      </c>
+      <c r="E218">
+        <v>0.21743000000000001</v>
+      </c>
+      <c r="F218">
+        <v>-5.629E-2</v>
+      </c>
+      <c r="G218">
+        <v>24.152699999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>43.512999999999998</v>
+      </c>
+      <c r="B219">
+        <v>24.978999999999999</v>
+      </c>
+      <c r="C219">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D219">
+        <v>9.1674000000000007</v>
+      </c>
+      <c r="E219">
+        <v>0.21817</v>
+      </c>
+      <c r="F219">
+        <v>-5.5690000000000003E-2</v>
+      </c>
+      <c r="G219">
+        <v>24.167400000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>43.712000000000003</v>
+      </c>
+      <c r="B220">
+        <v>24.98</v>
+      </c>
+      <c r="C220">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D220">
+        <v>9.1919000000000004</v>
+      </c>
+      <c r="E220">
+        <v>0.21940999999999999</v>
+      </c>
+      <c r="F220">
+        <v>-5.7299999999999997E-2</v>
+      </c>
+      <c r="G220">
+        <v>24.1919</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>43.911999999999999</v>
+      </c>
+      <c r="B221">
+        <v>24.98</v>
+      </c>
+      <c r="C221">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D221">
+        <v>9.2118000000000002</v>
+      </c>
+      <c r="E221">
+        <v>0.22040999999999999</v>
+      </c>
+      <c r="F221">
+        <v>-5.6919999999999998E-2</v>
+      </c>
+      <c r="G221">
+        <v>24.2118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>44.112000000000002</v>
+      </c>
+      <c r="B222">
+        <v>24.98</v>
+      </c>
+      <c r="C222">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D222">
+        <v>9.2324999999999999</v>
+      </c>
+      <c r="E222">
+        <v>0.22145000000000001</v>
+      </c>
+      <c r="F222">
+        <v>-5.8270000000000002E-2</v>
+      </c>
+      <c r="G222">
+        <v>24.232500000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>44.311</v>
+      </c>
+      <c r="B223">
+        <v>24.981000000000002</v>
+      </c>
+      <c r="C223">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D223">
+        <v>9.2537000000000003</v>
+      </c>
+      <c r="E223">
+        <v>0.22252</v>
+      </c>
+      <c r="F223">
+        <v>-5.7540000000000001E-2</v>
+      </c>
+      <c r="G223">
+        <v>24.253699999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>44.511000000000003</v>
+      </c>
+      <c r="B224">
+        <v>24.981000000000002</v>
+      </c>
+      <c r="C224">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D224">
+        <v>9.2692999999999994</v>
+      </c>
+      <c r="E224">
+        <v>0.22331000000000001</v>
+      </c>
+      <c r="F224">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="G224">
+        <v>24.269300000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>44.71</v>
+      </c>
+      <c r="B225">
+        <v>24.981000000000002</v>
+      </c>
+      <c r="C225">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D225">
+        <v>9.2943999999999996</v>
+      </c>
+      <c r="E225">
+        <v>0.22456999999999999</v>
+      </c>
+      <c r="F225">
+        <v>-5.6649999999999999E-2</v>
+      </c>
+      <c r="G225">
+        <v>24.2944</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>44.91</v>
+      </c>
+      <c r="B226">
+        <v>24.981000000000002</v>
+      </c>
+      <c r="C226">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D226">
+        <v>9.3139000000000003</v>
+      </c>
+      <c r="E226">
+        <v>0.22556000000000001</v>
+      </c>
+      <c r="F226">
+        <v>-5.679E-2</v>
+      </c>
+      <c r="G226">
+        <v>24.3139</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>45.11</v>
+      </c>
+      <c r="B227">
+        <v>24.981999999999999</v>
+      </c>
+      <c r="C227">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D227">
+        <v>9.3346</v>
+      </c>
+      <c r="E227">
+        <v>0.2266</v>
+      </c>
+      <c r="F227">
+        <v>-5.6649999999999999E-2</v>
+      </c>
+      <c r="G227">
+        <v>24.334599999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>45.308999999999997</v>
+      </c>
+      <c r="B228">
+        <v>24.981999999999999</v>
+      </c>
+      <c r="C228">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D228">
+        <v>9.3545999999999996</v>
+      </c>
+      <c r="E228">
+        <v>0.22761000000000001</v>
+      </c>
+      <c r="F228">
+        <v>-5.6899999999999999E-2</v>
+      </c>
+      <c r="G228">
+        <v>24.354600000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>45.509</v>
+      </c>
+      <c r="B229">
+        <v>24.981999999999999</v>
+      </c>
+      <c r="C229">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D229">
+        <v>9.3689999999999998</v>
+      </c>
+      <c r="E229">
+        <v>0.22833999999999999</v>
+      </c>
+      <c r="F229">
+        <v>-5.7259999999999998E-2</v>
+      </c>
+      <c r="G229">
+        <v>24.369</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>45.707999999999998</v>
+      </c>
+      <c r="B230">
+        <v>24.981999999999999</v>
+      </c>
+      <c r="C230">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D230">
+        <v>9.3892000000000007</v>
+      </c>
+      <c r="E230">
+        <v>0.22935</v>
+      </c>
+      <c r="F230">
+        <v>-5.7270000000000001E-2</v>
+      </c>
+      <c r="G230">
+        <v>24.389199999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>45.908000000000001</v>
+      </c>
+      <c r="B231">
+        <v>24.983000000000001</v>
+      </c>
+      <c r="C231">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="D231">
+        <v>9.4154</v>
+      </c>
+      <c r="E231">
+        <v>0.23066999999999999</v>
+      </c>
+      <c r="F231">
+        <v>-5.7590000000000002E-2</v>
+      </c>
+      <c r="G231">
+        <v>24.415400000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>46.107999999999997</v>
+      </c>
+      <c r="B232">
+        <v>24.983000000000001</v>
+      </c>
+      <c r="C232">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D232">
+        <v>9.4359000000000002</v>
+      </c>
+      <c r="E232">
+        <v>0.23171</v>
+      </c>
+      <c r="F232">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="G232">
+        <v>24.4359</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>46.307000000000002</v>
+      </c>
+      <c r="B233">
+        <v>24.984000000000002</v>
+      </c>
+      <c r="C233">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D233">
+        <v>9.4558999999999997</v>
+      </c>
+      <c r="E233">
+        <v>0.23271</v>
+      </c>
+      <c r="F233">
+        <v>-5.6649999999999999E-2</v>
+      </c>
+      <c r="G233">
+        <v>24.4559</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>46.506999999999998</v>
+      </c>
+      <c r="B234">
+        <v>24.984000000000002</v>
+      </c>
+      <c r="C234">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D234">
+        <v>9.4703999999999997</v>
+      </c>
+      <c r="E234">
+        <v>0.23344000000000001</v>
+      </c>
+      <c r="F234">
+        <v>-5.6219999999999999E-2</v>
+      </c>
+      <c r="G234">
+        <v>24.470400000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>46.706000000000003</v>
+      </c>
+      <c r="B235">
+        <v>24.984000000000002</v>
+      </c>
+      <c r="C235">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D235">
+        <v>9.4895999999999994</v>
+      </c>
+      <c r="E235">
+        <v>0.23441000000000001</v>
+      </c>
+      <c r="F235">
+        <v>-5.7070000000000003E-2</v>
+      </c>
+      <c r="G235">
+        <v>24.489599999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>46.905999999999999</v>
+      </c>
+      <c r="B236">
+        <v>24.984000000000002</v>
+      </c>
+      <c r="C236">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D236">
+        <v>9.5134000000000007</v>
+      </c>
+      <c r="E236">
+        <v>0.23561000000000001</v>
+      </c>
+      <c r="F236">
+        <v>-5.7049999999999997E-2</v>
+      </c>
+      <c r="G236">
+        <v>24.513400000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>47.106000000000002</v>
+      </c>
+      <c r="B237">
+        <v>24.984000000000002</v>
+      </c>
+      <c r="C237">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D237">
+        <v>9.5327999999999999</v>
+      </c>
+      <c r="E237">
+        <v>0.23658999999999999</v>
+      </c>
+      <c r="F237">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="G237">
+        <v>24.532800000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>47.305</v>
+      </c>
+      <c r="B238">
+        <v>24.984999999999999</v>
+      </c>
+      <c r="C238">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D238">
+        <v>9.548</v>
+      </c>
+      <c r="E238">
+        <v>0.23735999999999999</v>
+      </c>
+      <c r="F238">
+        <v>-5.5500000000000001E-2</v>
+      </c>
+      <c r="G238">
+        <v>24.547999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>47.505000000000003</v>
+      </c>
+      <c r="B239">
+        <v>24.984999999999999</v>
+      </c>
+      <c r="C239">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="D239">
+        <v>9.5728000000000009</v>
+      </c>
+      <c r="E239">
+        <v>0.23860999999999999</v>
+      </c>
+      <c r="F239">
+        <v>-5.595E-2</v>
+      </c>
+      <c r="G239">
+        <v>24.572800000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>47.704000000000001</v>
+      </c>
+      <c r="B240">
+        <v>24.984999999999999</v>
+      </c>
+      <c r="C240">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="D240">
+        <v>9.5870999999999995</v>
+      </c>
+      <c r="E240">
+        <v>0.23932999999999999</v>
+      </c>
+      <c r="F240">
+        <v>-5.6550000000000003E-2</v>
+      </c>
+      <c r="G240">
+        <v>24.5871</v>
       </c>
     </row>
   </sheetData>
